--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9652312A-C8D1-43DD-90CF-BBA140D3012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="213">
   <si>
     <t>Raised By</t>
   </si>
@@ -688,11 +687,35 @@
   <si>
     <t>WireFrame_Review</t>
   </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_021</t>
+  </si>
+  <si>
+    <t>only one version of SRS</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_022</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_023</t>
+  </si>
+  <si>
+    <t>empty revision history</t>
+  </si>
+  <si>
+    <t>only old document is uploaded</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_024</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -941,7 +964,63 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="168">
+  <dxfs count="176">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2176,7 +2255,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2288,7 +2366,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2312,7 +2389,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2323,7 +2399,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2347,7 +2422,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2358,7 +2432,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2382,7 +2455,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2393,7 +2465,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2456,7 +2527,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2589,7 +2659,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2671,7 +2740,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2803,7 +2871,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -2866,7 +2933,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2877,7 +2943,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2901,7 +2966,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2912,7 +2976,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2936,7 +2999,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2947,7 +3009,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2971,7 +3032,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3104,7 +3164,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3216,7 +3275,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3343,7 +3401,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3367,7 +3424,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3378,7 +3434,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3402,7 +3457,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3413,7 +3467,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3437,7 +3490,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3448,7 +3500,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3472,7 +3523,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3605,7 +3655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3687,7 +3736,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3814,7 +3862,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3838,7 +3885,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3849,7 +3895,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3873,7 +3918,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3884,7 +3928,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3908,7 +3951,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -3919,7 +3961,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3943,7 +3984,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4076,7 +4116,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4158,7 +4197,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4285,7 +4323,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4309,7 +4346,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4320,7 +4356,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4344,7 +4379,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4355,7 +4389,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4379,7 +4412,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4390,7 +4422,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4414,7 +4445,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4546,7 +4576,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4628,7 +4657,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4755,7 +4783,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4779,7 +4806,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4790,7 +4816,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4814,7 +4839,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4825,7 +4849,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4849,7 +4872,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4860,7 +4882,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4884,7 +4905,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4978,7 +4998,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -5016,7 +5036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7802,7 +7821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8283,44 +8302,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="167" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="163" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8329,7 +8348,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8342,7 +8361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8380,7 +8399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8610,16 +8629,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8628,7 +8647,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8641,7 +8660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="B1048548" workbookViewId="0">
@@ -9040,156 +9059,156 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="147" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9198,7 +9217,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9211,7 +9230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9829,16 +9848,16 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9847,7 +9866,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9860,7 +9879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10032,16 +10051,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10049,7 +10068,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10062,14 +10081,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10:L10"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10809,54 +10828,364 @@
         <v>107</v>
       </c>
     </row>
+    <row r="23" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A10:L10"/>
   </mergeCells>
-  <conditionalFormatting sqref="H23:H1048576">
-    <cfRule type="cellIs" dxfId="95" priority="129" operator="equal">
+  <conditionalFormatting sqref="H28:H1048576">
+    <cfRule type="cellIs" dxfId="107" priority="185" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="186" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="187" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="188" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
+    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H16">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="88" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H9">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -10870,7 +11199,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H16">
+  <conditionalFormatting sqref="H23">
     <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -10884,63 +11213,63 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="23" priority="29" operator="equal">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="19" priority="25" operator="equal">
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -10954,7 +11283,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -10968,7 +11297,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H9">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -10982,7 +11311,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -11001,17 +11330,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H23:H1048576</xm:sqref>
+          <xm:sqref>H28:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
-            <xm:f>[F_Review.xlsx]Options!#REF!</xm:f>
+            <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H11:H22 H1:H9</xm:sqref>
+          <xm:sqref>H1:H9 H11:H27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11020,7 +11349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11263,7 +11592,7 @@
       </c>
       <c r="N43" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -11317,7 +11646,7 @@
       </c>
       <c r="N46" s="24">
         <f>SUM(N42:N45)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,25 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9652312A-C8D1-43DD-90CF-BBA140D3012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004DDC3-89D0-4911-BDE5-94F78B126EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Risk_Managment_Plan_Review" sheetId="7" r:id="rId3"/>
-    <sheet name="WireFrame_Review" sheetId="12" r:id="rId4"/>
-    <sheet name="SRS_Review" sheetId="3" r:id="rId5"/>
-    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId6"/>
-    <sheet name="Audit_Review" sheetId="11" r:id="rId7"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId8"/>
+    <sheet name="Scope_Statment_Review" sheetId="9" r:id="rId4"/>
+    <sheet name="WireFrame_Review" sheetId="12" r:id="rId5"/>
+    <sheet name="SRS_Review" sheetId="3" r:id="rId6"/>
+    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
+    <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Audit_Review!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="206">
   <si>
     <t>Raised By</t>
   </si>
@@ -175,6 +178,9 @@
     <t>Closed By</t>
   </si>
   <si>
+    <t>In page 1 in scope description in the in scope section this part " Search engine optimized nearby Restaurants" should be changed according to our update we got from the review</t>
+  </si>
+  <si>
     <t xml:space="preserve">section 3.22 has a conflict topic </t>
   </si>
   <si>
@@ -247,7 +253,23 @@
     <t>Need Approval</t>
   </si>
   <si>
+    <t>Assign To</t>
+  </si>
+  <si>
     <t>Aml Nasser</t>
+  </si>
+  <si>
+    <t>In page 1 the launching date must change to the fifth week 
+(is not determined yet)</t>
+  </si>
+  <si>
+    <t>Scope_Statement</t>
+  </si>
+  <si>
+    <t>F_REVIEW_SS_V1.0_001</t>
+  </si>
+  <si>
+    <t>F_REVIEW_SS_V1.0_002</t>
   </si>
   <si>
     <t>F_REVIEW_RMP_V1.0_001</t>
@@ -643,15 +665,6 @@
   </si>
   <si>
     <t>In the Home page, please change "Restraunt menu" title to "Foodies' Restraunts" as this is the page that contains the restraunts themselves not the restraunt menus.</t>
-  </si>
-  <si>
-    <t>in the nav bar a link to the home page must be added</t>
-  </si>
-  <si>
-    <t>what happen if the user forget his password</t>
-  </si>
-  <si>
-    <t>a link to the home and menu must be added</t>
   </si>
   <si>
     <r>
@@ -680,36 +693,6 @@
   </si>
   <si>
     <t>I changed the sequence due to look and feel concepts</t>
-  </si>
-  <si>
-    <t>Need to go deep in each branch</t>
-  </si>
-  <si>
-    <t>WireFrame_Review</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_021</t>
-  </si>
-  <si>
-    <t>only one version of SRS</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_022</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_023</t>
-  </si>
-  <si>
-    <t>empty revision history</t>
-  </si>
-  <si>
-    <t>only old document is uploaded</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_024</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_025</t>
   </si>
 </sst>
 </file>
@@ -774,7 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,6 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,12 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,6 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -964,371 +943,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="124">
     <dxf>
       <fill>
         <patternFill>
@@ -3122,10 +2737,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3613,10 +3228,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4995,16 +4610,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7828,7 +7443,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7840,19 +7455,19 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -7870,27 +7485,27 @@
         <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10">
         <v>44664</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -7906,13 +7521,13 @@
     </row>
     <row r="3" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="10">
         <v>44664</v>
@@ -7934,19 +7549,19 @@
     </row>
     <row r="4" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10">
         <v>44664</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -7962,13 +7577,13 @@
     </row>
     <row r="5" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10">
         <v>44664</v>
@@ -7990,13 +7605,13 @@
     </row>
     <row r="6" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10">
         <v>44664</v>
@@ -8018,13 +7633,13 @@
     </row>
     <row r="7" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="10">
         <v>44664</v>
@@ -8045,7 +7660,7 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
@@ -8058,19 +7673,19 @@
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" s="10">
         <v>44678</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
@@ -8086,19 +7701,19 @@
     </row>
     <row r="10" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="10">
         <v>44678</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>84</v>
+      <c r="E10" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
@@ -8114,19 +7729,19 @@
     </row>
     <row r="11" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10">
         <v>44678</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
@@ -8138,27 +7753,27 @@
         <v>44680</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12" s="10">
         <v>44678</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>6</v>
@@ -8174,19 +7789,19 @@
     </row>
     <row r="13" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10">
         <v>44678</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
@@ -8202,19 +7817,19 @@
     </row>
     <row r="14" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="10">
         <v>44678</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>6</v>
@@ -8230,13 +7845,13 @@
     </row>
     <row r="15" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D15" s="10">
         <v>44678</v>
@@ -8245,19 +7860,15 @@
         <v>36</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="10">
-        <v>44680</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="32"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
@@ -8270,19 +7881,19 @@
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17" s="10">
         <v>44680</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>6</v>
@@ -8302,44 +7913,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="175" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8385,12 +7996,12 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -8425,13 +8036,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -8449,27 +8060,27 @@
         <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="10">
         <v>44678</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -8485,13 +8096,13 @@
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="10">
         <v>44678</v>
@@ -8513,13 +8124,13 @@
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="10">
         <v>44678</v>
@@ -8541,13 +8152,13 @@
     </row>
     <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="10">
         <v>44678</v>
@@ -8565,21 +8176,21 @@
         <v>44680</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="10">
         <v>44678</v>
@@ -8601,13 +8212,13 @@
     </row>
     <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="10">
         <v>44678</v>
@@ -8629,16 +8240,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8661,10 +8272,167 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="9" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="10">
+        <v>44678</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44680</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="10">
+        <v>44678</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44680</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F2 F4:F1048576">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Options!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1048548" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8673,24 +8441,23 @@
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="34.6640625" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -8708,32 +8475,34 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D2" s="10">
         <v>44686</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H2" s="10">
         <v>44687</v>
       </c>
@@ -8742,184 +8511,196 @@
     </row>
     <row r="3" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D3" s="10">
         <v>44686</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H3" s="10">
         <v>44687</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" s="27">
+    <row r="4" spans="1:10" s="31" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="29">
         <v>44686</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="1:10" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="E4" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="H4" s="29">
+        <v>44687</v>
+      </c>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+    </row>
+    <row r="5" spans="1:10" s="31" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="29">
         <v>44686</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27">
+      <c r="G5" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="29">
         <v>44687</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="28"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D6" s="10">
         <v>44686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H6" s="10">
         <v>44687</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="30">
+    <row r="7" spans="1:10" s="31" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="29">
         <v>44686</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30">
+      <c r="G7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="29">
         <v>44687</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="27">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:10" s="31" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="29">
         <v>44686</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" s="28"/>
+      <c r="E8" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="29">
+        <v>44687</v>
+      </c>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
     </row>
     <row r="9" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D9" s="10">
         <v>44686</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H9" s="10">
         <v>44687</v>
       </c>
@@ -8928,24 +8709,26 @@
     </row>
     <row r="10" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D10" s="10">
         <v>44686</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H10" s="10">
         <v>44687</v>
       </c>
@@ -8954,24 +8737,26 @@
     </row>
     <row r="11" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D11" s="10">
         <v>44686</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H11" s="10">
         <v>44687</v>
       </c>
@@ -8980,24 +8765,26 @@
     </row>
     <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D12" s="10">
         <v>44686</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H12" s="10">
         <v>44687</v>
       </c>
@@ -9006,24 +8793,26 @@
     </row>
     <row r="13" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D13" s="10">
         <v>44686</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="H13" s="10">
         <v>44687</v>
       </c>
@@ -9031,184 +8820,184 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="159" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="155" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="151" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="147" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="143" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="139" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="135" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="131" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="119" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9217,7 +9006,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9229,8 +9018,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9256,13 +9045,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -9280,21 +9069,21 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10">
         <v>44664</v>
@@ -9311,18 +9100,18 @@
       <c r="H2" s="10">
         <v>44666</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="10">
         <v>44664</v>
@@ -9339,18 +9128,18 @@
       <c r="H3" s="10">
         <v>44666</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10">
         <v>44664</v>
@@ -9367,18 +9156,18 @@
       <c r="H4" s="10">
         <v>44666</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="10">
         <v>44664</v>
@@ -9395,18 +9184,18 @@
       <c r="H5" s="10">
         <v>44666</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10">
         <v>44664</v>
@@ -9423,18 +9212,18 @@
       <c r="H6" s="10">
         <v>44666</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10">
         <v>44664</v>
@@ -9451,24 +9240,24 @@
       <c r="H7" s="10">
         <v>44666</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="10">
         <v>44664</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
@@ -9479,18 +9268,18 @@
       <c r="H8" s="10">
         <v>44666</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="10">
         <v>44664</v>
@@ -9507,18 +9296,18 @@
       <c r="H9" s="10">
         <v>44666</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="10">
         <v>44664</v>
@@ -9535,18 +9324,18 @@
       <c r="H10" s="10">
         <v>44666</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="10">
         <v>44664</v>
@@ -9563,18 +9352,18 @@
       <c r="H11" s="10">
         <v>44666</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="10">
         <v>44664</v>
@@ -9591,11 +9380,11 @@
       <c r="H12" s="10">
         <v>44666</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="32"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -9608,13 +9397,13 @@
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="10">
         <v>44664</v>
@@ -9631,18 +9420,18 @@
       <c r="H14" s="10">
         <v>44666</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="10">
         <v>44664</v>
@@ -9659,18 +9448,18 @@
       <c r="H15" s="10">
         <v>44666</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="10">
         <v>44665</v>
@@ -9687,18 +9476,18 @@
       <c r="H16" s="10">
         <v>44666</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="10">
         <v>44666</v>
@@ -9715,18 +9504,18 @@
       <c r="H17" s="10">
         <v>44666</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="10">
         <v>44666</v>
@@ -9743,18 +9532,18 @@
       <c r="H18" s="10">
         <v>44666</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="10">
         <v>44666</v>
@@ -9771,18 +9560,18 @@
       <c r="H19" s="10">
         <v>44666</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="10">
         <v>44666</v>
@@ -9799,18 +9588,18 @@
       <c r="H20" s="10">
         <v>44666</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="10">
         <v>44666</v>
@@ -9827,8 +9616,8 @@
       <c r="H21" s="10">
         <v>44666</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="32"/>
@@ -9848,16 +9637,16 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9866,7 +9655,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9878,12 +9667,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9902,13 +9691,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -9926,141 +9715,141 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D2" s="10">
         <v>44680</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H2" s="10">
         <v>44680</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D3" s="10">
         <v>44680</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H3" s="10">
         <v>44680</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F7" s="21"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="21"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="21"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="21"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10068,7 +9857,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10080,15 +9869,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L27"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10110,22 +9899,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>1</v>
@@ -10140,36 +9929,36 @@
         <v>5</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E2" s="10">
         <v>44672</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="10"/>
@@ -10178,28 +9967,28 @@
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E3" s="10">
         <v>44672</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10"/>
@@ -10208,28 +9997,28 @@
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E4" s="10">
         <v>44672</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="10"/>
@@ -10238,60 +10027,60 @@
     </row>
     <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E5" s="10">
         <v>44672</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="10"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E6" s="10">
         <v>44672</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="10"/>
@@ -10300,13 +10089,13 @@
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
@@ -10315,13 +10104,13 @@
         <v>44672</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
@@ -10330,28 +10119,28 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E8" s="10">
         <v>44672</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
@@ -10360,28 +10149,28 @@
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E9" s="10">
         <v>44672</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="10"/>
@@ -10404,31 +10193,31 @@
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E11" s="10">
         <v>44686</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J11" s="10">
         <v>44686</v>
@@ -10438,31 +10227,31 @@
     </row>
     <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E12" s="10">
         <v>44686</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J12" s="10">
         <v>44686</v>
@@ -10472,69 +10261,69 @@
     </row>
     <row r="13" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" s="10">
         <v>44686</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J13" s="10">
         <v>44686</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" s="10">
         <v>44686</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J14" s="10">
         <v>44686</v>
@@ -10544,31 +10333,31 @@
     </row>
     <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E15" s="10">
         <v>44686</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J15" s="10">
         <v>44686</v>
@@ -10578,69 +10367,69 @@
     </row>
     <row r="16" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="10">
         <v>44686</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J16" s="10">
         <v>44686</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E17" s="10">
         <v>44686</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J17" s="10">
         <v>44686</v>
@@ -10650,31 +10439,31 @@
     </row>
     <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E18" s="10">
         <v>44686</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J18" s="10">
         <v>44686</v>
@@ -10684,67 +10473,65 @@
     </row>
     <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E19" s="10">
         <v>44686</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J19" s="10">
         <v>44686</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>203</v>
-      </c>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="10">
         <v>44686</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J20" s="10">
         <v>44686</v>
@@ -10754,564 +10541,240 @@
     </row>
     <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21" s="10">
         <v>44686</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J21" s="10">
         <v>44686</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E22" s="10">
         <v>44686</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J22" s="10">
         <v>44686</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="10">
-        <v>44686</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="10">
-        <v>44686</v>
-      </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="10">
-        <v>44686</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J24" s="10">
-        <v>44686</v>
-      </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="10">
-        <v>44686</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J25" s="10">
-        <v>44686</v>
-      </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="10">
-        <v>44686</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J26" s="10">
-        <v>44686</v>
-      </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="10">
-        <v>44686</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J27" s="10">
-        <v>44686</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A10:L10"/>
   </mergeCells>
-  <conditionalFormatting sqref="H28:H1048576">
-    <cfRule type="cellIs" dxfId="107" priority="185" operator="equal">
+  <conditionalFormatting sqref="H1:H9">
+    <cfRule type="cellIs" dxfId="47" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="86" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="87" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="88" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9 H23:H1048576">
+    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="82" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="83" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="84" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="79" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H9">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -11329,18 +10792,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H28:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
-          <x14:formula1>
-            <xm:f>Options!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H9 H11:H27</xm:sqref>
+          <xm:sqref>H1:H9 H11:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11348,12 +10805,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11373,7 +10830,7 @@
       </c>
       <c r="C3" s="3">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="39" t="s">
         <v>10</v>
@@ -11393,7 +10850,7 @@
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L4" s="39"/>
       <c r="M4" s="4" t="s">
@@ -11407,7 +10864,7 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="14">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
@@ -11415,7 +10872,7 @@
       </c>
       <c r="L5" s="39"/>
       <c r="M5" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="15">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"In Progress")</f>
@@ -11425,7 +10882,7 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="38"/>
       <c r="B6" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="14">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
@@ -11433,7 +10890,7 @@
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N6" s="15">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"Need Approval")</f>
@@ -11460,193 +10917,193 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="B23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
-        <v>2</v>
+      <c r="C23" s="24">
+        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"Open")</f>
+        <v>0</v>
       </c>
       <c r="L23" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="25">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
-        <v>10</v>
+      <c r="C24" s="24">
+        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"Closed")</f>
+        <v>2</v>
       </c>
       <c r="L24" s="39"/>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="25">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Closed")</f>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
-      <c r="B25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
+      <c r="B25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="24">
+        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
       <c r="L25" s="39"/>
-      <c r="M25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="24">
+      <c r="M25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="25">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
-      <c r="B26" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
+      <c r="B26" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="24">
+        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
       <c r="L26" s="39"/>
-      <c r="M26" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="24">
+      <c r="M26" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="25">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="24">
         <f>SUM(C23:C26)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L27" s="39"/>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="25">
         <f>SUM(N23:N26)</f>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H34" s="25"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="24">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
       <c r="L42" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="M42" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="M42" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="24">
+      <c r="N42" s="25">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Open")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="24">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
       <c r="L43" s="39"/>
-      <c r="M43" s="24" t="s">
+      <c r="M43" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N43" s="24">
+      <c r="N43" s="25">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
-      <c r="B44" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="23">
+      <c r="B44" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="24">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
       <c r="L44" s="39"/>
-      <c r="M44" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N44" s="24">
+      <c r="M44" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N44" s="25">
         <f>COUNTIF(Audit_Review!H2:H1048576,"In Progress")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
-      <c r="B45" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="23">
+      <c r="B45" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="24">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
       <c r="L45" s="39"/>
-      <c r="M45" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N45" s="24">
+      <c r="M45" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="N45" s="25">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Need Approval")</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="24">
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
       <c r="L46" s="39"/>
-      <c r="M46" s="24" t="s">
+      <c r="M46" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="24">
+      <c r="N46" s="25">
         <f>SUM(N42:N45)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,26 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004DDC3-89D0-4911-BDE5-94F78B126EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355859A6-D5CE-49E8-817D-9604C4FD6243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Risk_Managment_Plan_Review" sheetId="7" r:id="rId3"/>
-    <sheet name="Scope_Statment_Review" sheetId="9" r:id="rId4"/>
-    <sheet name="WireFrame_Review" sheetId="12" r:id="rId5"/>
-    <sheet name="SRS_Review" sheetId="3" r:id="rId6"/>
-    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
-    <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId9"/>
+    <sheet name="WireFrame_Review" sheetId="12" r:id="rId4"/>
+    <sheet name="SRS_Review" sheetId="3" r:id="rId5"/>
+    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId6"/>
+    <sheet name="Audit_Review" sheetId="11" r:id="rId7"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="221">
   <si>
     <t>Raised By</t>
   </si>
@@ -178,9 +175,6 @@
     <t>Closed By</t>
   </si>
   <si>
-    <t>In page 1 in scope description in the in scope section this part " Search engine optimized nearby Restaurants" should be changed according to our update we got from the review</t>
-  </si>
-  <si>
     <t xml:space="preserve">section 3.22 has a conflict topic </t>
   </si>
   <si>
@@ -253,23 +247,7 @@
     <t>Need Approval</t>
   </si>
   <si>
-    <t>Assign To</t>
-  </si>
-  <si>
     <t>Aml Nasser</t>
-  </si>
-  <si>
-    <t>In page 1 the launching date must change to the fifth week 
-(is not determined yet)</t>
-  </si>
-  <si>
-    <t>Scope_Statement</t>
-  </si>
-  <si>
-    <t>F_REVIEW_SS_V1.0_001</t>
-  </si>
-  <si>
-    <t>F_REVIEW_SS_V1.0_002</t>
   </si>
   <si>
     <t>F_REVIEW_RMP_V1.0_001</t>
@@ -665,6 +643,15 @@
   </si>
   <si>
     <t>In the Home page, please change "Restraunt menu" title to "Foodies' Restraunts" as this is the page that contains the restraunts themselves not the restraunt menus.</t>
+  </si>
+  <si>
+    <t>in the nav bar a link to the home page must be added</t>
+  </si>
+  <si>
+    <t>what happen if the user forget his password</t>
+  </si>
+  <si>
+    <t>a link to the home and menu must be added</t>
   </si>
   <si>
     <r>
@@ -693,6 +680,60 @@
   </si>
   <si>
     <t>I changed the sequence due to look and feel concepts</t>
+  </si>
+  <si>
+    <t>Need to go deep in each branch</t>
+  </si>
+  <si>
+    <t>WireFrame_Review</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_021</t>
+  </si>
+  <si>
+    <t>only one version of SRS</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_022</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_023</t>
+  </si>
+  <si>
+    <t>empty revision history</t>
+  </si>
+  <si>
+    <t>only old document is uploaded</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_024</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_025</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.26</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>USECASE</t>
+  </si>
+  <si>
+    <t>Update the version</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.27</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.28</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.29</t>
+  </si>
+  <si>
+    <t>version consistency with the review sheet and version history</t>
   </si>
 </sst>
 </file>
@@ -757,7 +798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,7 +809,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -828,12 +869,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,7 +940,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,6 +964,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -913,7 +979,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,7 +1020,259 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="160">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2737,10 +3066,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3228,10 +3557,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4610,16 +4939,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7443,7 +7772,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7455,19 +7784,19 @@
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -7485,27 +7814,27 @@
         <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="10">
         <v>44664</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -7521,13 +7850,13 @@
     </row>
     <row r="3" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10">
         <v>44664</v>
@@ -7549,19 +7878,19 @@
     </row>
     <row r="4" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="10">
         <v>44664</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
@@ -7577,13 +7906,13 @@
     </row>
     <row r="5" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="10">
         <v>44664</v>
@@ -7605,13 +7934,13 @@
     </row>
     <row r="6" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10">
         <v>44664</v>
@@ -7633,13 +7962,13 @@
     </row>
     <row r="7" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="10">
         <v>44664</v>
@@ -7660,32 +7989,32 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10">
         <v>44678</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
@@ -7701,19 +8030,19 @@
     </row>
     <row r="10" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="10">
         <v>44678</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>90</v>
+      <c r="E10" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
@@ -7729,19 +8058,19 @@
     </row>
     <row r="11" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="10">
         <v>44678</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
@@ -7753,27 +8082,27 @@
         <v>44680</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="10">
         <v>44678</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>6</v>
@@ -7789,19 +8118,19 @@
     </row>
     <row r="13" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="10">
         <v>44678</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
@@ -7817,19 +8146,19 @@
     </row>
     <row r="14" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="10">
         <v>44678</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>6</v>
@@ -7845,13 +8174,13 @@
     </row>
     <row r="15" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="10">
         <v>44678</v>
@@ -7860,40 +8189,44 @@
         <v>36</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="10">
+        <v>44680</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="10">
         <v>44680</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>6</v>
@@ -7913,44 +8246,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="123" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7996,12 +8329,12 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -8036,13 +8369,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -8060,27 +8393,27 @@
         <v>5</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="10">
         <v>44678</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
@@ -8096,13 +8429,13 @@
     </row>
     <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10">
         <v>44678</v>
@@ -8124,13 +8457,13 @@
     </row>
     <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="10">
         <v>44678</v>
@@ -8152,13 +8485,13 @@
     </row>
     <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="10">
         <v>44678</v>
@@ -8176,21 +8509,21 @@
         <v>44680</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10">
         <v>44678</v>
@@ -8212,13 +8545,13 @@
     </row>
     <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="10">
         <v>44678</v>
@@ -8240,16 +8573,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8272,167 +8605,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="79.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
-    <col min="9" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="10">
-        <v>44678</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="10">
-        <v>44680</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="10">
-        <v>44678</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="10">
-        <v>44680</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="F1:F2 F4:F1048576">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
-      <formula>"In Progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
-          <x14:formula1>
-            <xm:f>Options!$B$1:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8441,23 +8617,24 @@
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.109375" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
     <col min="9" max="9" width="34.6640625" customWidth="1"/>
     <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -8475,34 +8652,32 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D2" s="10">
         <v>44686</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="10">
         <v>44687</v>
       </c>
@@ -8511,196 +8686,184 @@
     </row>
     <row r="3" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D3" s="10">
         <v>44686</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="10">
         <v>44687</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="31" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" s="27">
+        <v>44686</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="5" spans="1:10" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="B5" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="27">
         <v>44686</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="E5" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="29">
+      <c r="G5" s="26"/>
+      <c r="H5" s="27">
         <v>44687</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" s="31" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="29">
-        <v>44686</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="29">
-        <v>44687</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="I5" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D6" s="10">
         <v>44686</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="10">
         <v>44687</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="31" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="29">
+    <row r="7" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="30">
         <v>44686</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="G7" s="29"/>
+      <c r="H7" s="30">
         <v>44687</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" s="31" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="27">
         <v>44686</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="29">
-        <v>44687</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="E8" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D9" s="10">
         <v>44686</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="10">
         <v>44687</v>
       </c>
@@ -8709,26 +8872,24 @@
     </row>
     <row r="10" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D10" s="10">
         <v>44686</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="10">
         <v>44687</v>
       </c>
@@ -8737,26 +8898,24 @@
     </row>
     <row r="11" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D11" s="10">
         <v>44686</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="10">
         <v>44687</v>
       </c>
@@ -8765,26 +8924,24 @@
     </row>
     <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D12" s="10">
         <v>44686</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="10">
         <v>44687</v>
       </c>
@@ -8793,26 +8950,24 @@
     </row>
     <row r="13" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D13" s="10">
         <v>44686</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>181</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="10">
         <v>44687</v>
       </c>
@@ -8820,184 +8975,184 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="22"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="22"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="22"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="22"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="99" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="95" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="91" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="87" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="83" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="79" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9006,7 +9161,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9018,8 +9173,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9045,13 +9200,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -9069,21 +9224,21 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="10">
         <v>44664</v>
@@ -9100,18 +9255,18 @@
       <c r="H2" s="10">
         <v>44666</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="10">
         <v>44664</v>
@@ -9128,18 +9283,18 @@
       <c r="H3" s="10">
         <v>44666</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="10">
         <v>44664</v>
@@ -9156,18 +9311,18 @@
       <c r="H4" s="10">
         <v>44666</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10">
         <v>44664</v>
@@ -9184,18 +9339,18 @@
       <c r="H5" s="10">
         <v>44666</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="10">
         <v>44664</v>
@@ -9212,18 +9367,18 @@
       <c r="H6" s="10">
         <v>44666</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="10">
         <v>44664</v>
@@ -9240,24 +9395,24 @@
       <c r="H7" s="10">
         <v>44666</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="10">
         <v>44664</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>6</v>
@@ -9268,18 +9423,18 @@
       <c r="H8" s="10">
         <v>44666</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10">
         <v>44664</v>
@@ -9296,18 +9451,18 @@
       <c r="H9" s="10">
         <v>44666</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="10">
         <v>44664</v>
@@ -9324,18 +9479,18 @@
       <c r="H10" s="10">
         <v>44666</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="10">
         <v>44664</v>
@@ -9352,18 +9507,18 @@
       <c r="H11" s="10">
         <v>44666</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10">
         <v>44664</v>
@@ -9380,30 +9535,30 @@
       <c r="H12" s="10">
         <v>44666</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="10">
         <v>44664</v>
@@ -9420,18 +9575,18 @@
       <c r="H14" s="10">
         <v>44666</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="10">
         <v>44664</v>
@@ -9448,18 +9603,18 @@
       <c r="H15" s="10">
         <v>44666</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="10">
         <v>44665</v>
@@ -9476,18 +9631,18 @@
       <c r="H16" s="10">
         <v>44666</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="10">
         <v>44666</v>
@@ -9504,18 +9659,18 @@
       <c r="H17" s="10">
         <v>44666</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="10">
         <v>44666</v>
@@ -9532,18 +9687,18 @@
       <c r="H18" s="10">
         <v>44666</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="10">
         <v>44666</v>
@@ -9560,18 +9715,18 @@
       <c r="H19" s="10">
         <v>44666</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="10">
         <v>44666</v>
@@ -9588,18 +9743,18 @@
       <c r="H20" s="10">
         <v>44666</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="10">
         <v>44666</v>
@@ -9616,20 +9771,20 @@
       <c r="H21" s="10">
         <v>44666</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9637,16 +9792,16 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9655,7 +9810,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9667,12 +9822,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9691,13 +9846,13 @@
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -9715,141 +9870,141 @@
         <v>5</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D2" s="10">
         <v>44680</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H2" s="10">
         <v>44680</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D3" s="10">
         <v>44680</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H3" s="10">
         <v>44680</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F4" s="22"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F5" s="22"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F6" s="22"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F7" s="22"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F8" s="22"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F9" s="22"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F11" s="22"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="22"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F13" s="23"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="22"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="22"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="22"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="22"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="22"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9857,7 +10012,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9869,15 +10024,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L22"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9899,22 +10054,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>1</v>
@@ -9929,36 +10084,36 @@
         <v>5</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E2" s="10">
         <v>44672</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="10"/>
@@ -9967,28 +10122,28 @@
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E3" s="10">
         <v>44672</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10"/>
@@ -9997,28 +10152,28 @@
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E4" s="10">
         <v>44672</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="10"/>
@@ -10027,60 +10182,60 @@
     </row>
     <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E5" s="10">
         <v>44672</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="10"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E6" s="10">
         <v>44672</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="10"/>
@@ -10089,13 +10244,13 @@
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>22</v>
@@ -10104,13 +10259,13 @@
         <v>44672</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
@@ -10119,28 +10274,28 @@
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E8" s="10">
         <v>44672</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
@@ -10149,28 +10304,28 @@
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E9" s="10">
         <v>44672</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="10"/>
@@ -10178,46 +10333,46 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="10">
         <v>44686</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J11" s="10">
         <v>44686</v>
@@ -10227,31 +10382,31 @@
     </row>
     <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="10">
         <v>44686</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J12" s="10">
         <v>44686</v>
@@ -10261,69 +10416,69 @@
     </row>
     <row r="13" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="10">
         <v>44686</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J13" s="10">
         <v>44686</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" s="10">
         <v>44686</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J14" s="10">
         <v>44686</v>
@@ -10333,31 +10488,31 @@
     </row>
     <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" s="10">
         <v>44686</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J15" s="10">
         <v>44686</v>
@@ -10367,69 +10522,69 @@
     </row>
     <row r="16" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="10">
         <v>44686</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J16" s="10">
         <v>44686</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="10">
         <v>44686</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J17" s="10">
         <v>44686</v>
@@ -10439,31 +10594,31 @@
     </row>
     <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="10">
         <v>44686</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J18" s="10">
         <v>44686</v>
@@ -10473,65 +10628,67 @@
     </row>
     <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="10">
         <v>44686</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J19" s="10">
         <v>44686</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" s="10">
         <v>44686</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J20" s="10">
         <v>44686</v>
@@ -10541,226 +10698,669 @@
     </row>
     <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21" s="10">
         <v>44686</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J21" s="10">
         <v>44686</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22" s="10">
         <v>44686</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J22" s="10">
         <v>44686</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J26" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="10">
+        <v>44686</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" s="10">
+        <v>44686</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="10">
+        <v>44688</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="10">
+        <v>44688</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="10">
+        <v>44688</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="10">
+        <v>44688</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
-  <mergeCells count="1">
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A28:L28"/>
   </mergeCells>
-  <conditionalFormatting sqref="H1:H9">
-    <cfRule type="cellIs" dxfId="47" priority="85" operator="equal">
+  <conditionalFormatting sqref="H29:H1048576">
+    <cfRule type="cellIs" dxfId="91" priority="185" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="186" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="187" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="88" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9 H23:H1048576">
-    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="82" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="83" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="188" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="39" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="102" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="103" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="35" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="95" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="96" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="89" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="90" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="91" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="92" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="15" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H9">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H9">
+    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -10774,7 +11374,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
+  <conditionalFormatting sqref="H27">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -10792,12 +11392,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H9 H11:H1048576</xm:sqref>
+          <xm:sqref>H29:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+          <x14:formula1>
+            <xm:f>Options!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H9 H11:H27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10805,12 +11411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10822,7 +11428,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -10830,9 +11436,9 @@
       </c>
       <c r="C3" s="3">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
-        <v>1</v>
-      </c>
-      <c r="L3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="43" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -10844,15 +11450,15 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
-        <v>13</v>
-      </c>
-      <c r="L4" s="39"/>
+        <v>14</v>
+      </c>
+      <c r="L4" s="43"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -10862,17 +11468,17 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="14">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="39"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N5" s="15">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"In Progress")</f>
@@ -10880,17 +11486,17 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="14">
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="39"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" s="15">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"Need Approval")</f>
@@ -10898,7 +11504,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -10906,7 +11512,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="39"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -10916,194 +11522,194 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="24">
-        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="25" t="s">
+      <c r="C23" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
+        <v>2</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="24">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="24">
-        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"Closed")</f>
-        <v>2</v>
-      </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="25" t="s">
+      <c r="C24" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
+        <v>10</v>
+      </c>
+      <c r="L24" s="43"/>
+      <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="24">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Closed")</f>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="24">
-        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"In Progress")</f>
+      <c r="A25" s="42"/>
+      <c r="B25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="25">
+      <c r="L25" s="43"/>
+      <c r="M25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="24">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="38"/>
-      <c r="B26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="24">
-        <f>COUNTIF(Scope_Statment_Review!F2:F1048576,"Need Approval")</f>
+      <c r="A26" s="42"/>
+      <c r="B26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N26" s="25">
+      <c r="L26" s="43"/>
+      <c r="M26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="24">
         <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="38"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <f>SUM(C23:C26)</f>
-        <v>2</v>
-      </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="24">
         <f>SUM(N23:N26)</f>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="23">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="M42" s="25" t="s">
+      <c r="L42" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="25">
+      <c r="N42" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Open")</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
-      <c r="B43" s="24" t="s">
+      <c r="A43" s="42"/>
+      <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="23">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="39"/>
-      <c r="M43" s="25" t="s">
+      <c r="L43" s="43"/>
+      <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N43" s="25">
+      <c r="N43" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="24">
+      <c r="A44" s="42"/>
+      <c r="B44" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="23">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="39"/>
-      <c r="M44" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="N44" s="25">
+      <c r="L44" s="43"/>
+      <c r="M44" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"In Progress")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="24">
+      <c r="A45" s="42"/>
+      <c r="B45" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="23">
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="39"/>
-      <c r="M45" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N45" s="25">
+      <c r="L45" s="43"/>
+      <c r="M45" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Need Approval")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="38"/>
-      <c r="B46" s="24" t="s">
+      <c r="A46" s="42"/>
+      <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="23">
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="25" t="s">
+      <c r="L46" s="43"/>
+      <c r="M46" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="25">
+      <c r="N46" s="24">
         <f>SUM(N42:N45)</f>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355859A6-D5CE-49E8-817D-9604C4FD6243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="232">
   <si>
     <t>Raised By</t>
   </si>
@@ -735,11 +734,45 @@
   <si>
     <t>version consistency with the review sheet and version history</t>
   </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove sign out from home page </t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_014</t>
+  </si>
+  <si>
+    <t>missed page ( page that has a summary of the order.
+ There will be two buttons: “Confirm” and “Cancel”)</t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_015</t>
+  </si>
+  <si>
+    <t>Add menu item page ---&gt; remove the (add item) button</t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add offer page replace(Add menu item) with Add offer </t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add offer page ---&gt; remove the add item button</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -1020,7 +1053,35 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
+  <dxfs count="164">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2561,7 +2622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
@@ -7765,7 +7826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8246,44 +8307,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="155" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8292,7 +8353,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8305,7 +8366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8343,7 +8404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8573,16 +8634,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8591,7 +8652,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8604,7 +8665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
@@ -9003,156 +9064,156 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="143" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="139" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="135" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="131" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="127" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9161,7 +9222,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9174,14 +9235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="A23:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9786,12 +9847,126 @@
       <c r="I22" s="37"/>
       <c r="J22" s="38"/>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="B13:J13"/>
   </mergeCells>
-  <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
+  <conditionalFormatting sqref="F14:F21 F28:F1048576 F1:F12">
+    <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="6" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="7" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F27">
     <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9809,12 +9984,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F23:F1048576 F14:F21 F1:F12</xm:sqref>
+          <xm:sqref>F1:F12 F14:F21 F28:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Options!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F23:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9823,7 +10004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10012,7 +10193,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10025,14 +10206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11061,7 +11242,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:L1"/>
   <mergeCells count="2">
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A28:L28"/>
@@ -11393,13 +11574,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>H29:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
@@ -11412,7 +11593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11446,7 +11627,7 @@
       </c>
       <c r="N3" s="4">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -11518,7 +11699,7 @@
       </c>
       <c r="N7" s="4">
         <f>SUM(N3:N6)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -1053,7 +1053,63 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="164">
+  <dxfs count="172">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2622,7 +2678,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
@@ -3618,7 +3674,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -8307,44 +8363,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="163" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="159" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8634,16 +8690,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8666,10 +8722,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9036,34 +9092,166 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F14" s="21"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F22"/>
+      <c r="A15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="10">
+        <v>44689</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="7"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="7"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="7"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" s="7"/>
+      <c r="E23" s="11"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F3">
+  <mergeCells count="1">
+    <mergeCell ref="A14:J14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F24:F1048576 F1:F3">
+    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="52" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="151" priority="45" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="46" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="47" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="48" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9077,7 +9265,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="F6">
     <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9091,7 +9279,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="F7">
     <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9105,7 +9293,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="F8">
     <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9119,7 +9307,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="F9">
     <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9133,7 +9321,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
+  <conditionalFormatting sqref="F10">
     <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9147,7 +9335,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="F11">
     <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9161,7 +9349,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="F12">
     <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9175,7 +9363,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
+  <conditionalFormatting sqref="F13">
     <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9189,7 +9377,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
+  <conditionalFormatting sqref="F20:F23">
     <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9203,7 +9391,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="F15:F19">
     <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9221,12 +9409,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F23:F1048576 F1:F21</xm:sqref>
+          <xm:sqref>F20:F1048576 F1:F13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Options!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F15:F19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9236,13 +9430,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="A23:G28"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9835,124 +10029,14 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="10">
-        <v>44689</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" s="10">
-        <v>44689</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="10">
-        <v>44689</v>
-      </c>
-      <c r="E25" t="s">
-        <v>227</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D26" s="10">
-        <v>44689</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="10">
-        <v>44689</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>223</v>
-      </c>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A22:J22"/>
+  <mergeCells count="1">
     <mergeCell ref="B13:J13"/>
   </mergeCells>
-  <conditionalFormatting sqref="F14:F21 F28:F1048576 F1:F12">
+  <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
     <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -9963,20 +10047,6 @@
       <formula>"Closed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F27">
-    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="3" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9984,18 +10054,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F12 F14:F21 F28:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Options!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F23:F27</xm:sqref>
+          <xm:sqref>F1:F12 F14:F21 F40:F1048576 F32:F38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11627,7 +11691,7 @@
       </c>
       <c r="N3" s="4">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"Open")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -11699,7 +11763,7 @@
       </c>
       <c r="N7" s="4">
         <f>SUM(N3:N6)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -11711,7 +11775,7 @@
       </c>
       <c r="C23" s="23">
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L23" s="43" t="s">
         <v>76</v>
@@ -11785,7 +11849,7 @@
       </c>
       <c r="C27" s="23">
         <f>SUM(C23:C26)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L27" s="43"/>
       <c r="M27" s="24" t="s">

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_903702A62FB51BCEC4DBA4FAF014D795A3CCA902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6998E0C0-D2BC-40AB-92AB-ABB6DC20C73B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Risk_Managment_Plan_Review" sheetId="7" r:id="rId3"/>
     <sheet name="WireFrame_Review" sheetId="12" r:id="rId4"/>
-    <sheet name="SRS_Review" sheetId="3" r:id="rId5"/>
-    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId6"/>
-    <sheet name="Audit_Review" sheetId="11" r:id="rId7"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId8"/>
+    <sheet name="ERD_Review" sheetId="13" r:id="rId5"/>
+    <sheet name="SRS_Review" sheetId="3" r:id="rId6"/>
+    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
+    <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Audit_Review!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="237">
   <si>
     <t>Raised By</t>
   </si>
@@ -768,11 +772,26 @@
   <si>
     <t xml:space="preserve"> Add offer page ---&gt; remove the add item button</t>
   </si>
+  <si>
+    <t>F_REVIEW_ERD_V1.0_001</t>
+  </si>
+  <si>
+    <t>Monica Atef</t>
+  </si>
+  <si>
+    <t>F_REVIEW_ERD_V1.0_002</t>
+  </si>
+  <si>
+    <t>In offers entity, please add "restraunt name" attribute.</t>
+  </si>
+  <si>
+    <t>In the user entity, Please make the "loyalty points" attribute a calculated attribute.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -1053,7 +1072,35 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="172">
+  <dxfs count="176">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7882,7 +7929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8363,44 +8410,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="171" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="167" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8409,7 +8456,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8422,7 +8469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8460,7 +8507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8690,16 +8737,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8708,7 +8755,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8721,10 +8768,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+    <sheetView topLeftCell="B11" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -9224,184 +9271,184 @@
     <mergeCell ref="A14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="F24:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="155" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="151" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="147" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="143" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="139" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="135" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="131" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="127" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="123" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="119" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F23">
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F19">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9410,13 +9457,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>F20:F1048576 F1:F13</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
@@ -9429,14 +9476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A3CFC9-F983-492B-BEA4-AEE18E86BD58}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9487,309 +9531,157 @@
     </row>
     <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="D2" s="10">
-        <v>44664</v>
+        <v>44690</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="10">
-        <v>44666</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="D3" s="10">
-        <v>44664</v>
+        <v>44690</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="10">
-        <v>44666</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="10">
-        <v>44664</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="10">
-        <v>44666</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
@@ -9806,6 +9698,530 @@
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B13:J13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F14:F21 F32:F38 F1:F2 F40:F1048576 F4:F12">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{063C37E4-84FF-4BD6-B9F5-038D3891CD1B}">
+          <x14:formula1>
+            <xm:f>Options!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F32:F38 F14:F21 F40:F1048576 F1:F12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="88.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+    </row>
+    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="10">
+        <v>44664</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="10">
+        <v>44666</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -10037,16 +10453,16 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10055,7 +10471,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10067,8 +10483,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10240,16 +10656,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10257,7 +10673,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10269,8 +10685,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -11306,330 +11722,330 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H29:H1048576">
-    <cfRule type="cellIs" dxfId="91" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="185" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="186" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="187" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="188" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="101" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="103" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="99" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="75" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="89" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="91" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="92" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="87" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H9">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H9">
-    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11638,13 +12054,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>H29:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
           <x14:formula1>
             <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
@@ -11656,8 +12072,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_903702A62FB51BCEC4DBA4FAF014D795A3CCA902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6998E0C0-D2BC-40AB-92AB-ABB6DC20C73B}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_903702A62FB51BCEC4DBA4FAF014D795A3CCA902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607EF988-7EB6-405C-9F86-E471132EFCB4}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="237">
   <si>
     <t>Raised By</t>
   </si>
@@ -9479,8 +9479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A3CFC9-F983-492B-BEA4-AEE18E86BD58}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9546,10 +9546,14 @@
         <v>235</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="10">
+        <v>44690</v>
+      </c>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
@@ -9570,10 +9574,14 @@
         <v>236</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="10">
+        <v>44690</v>
+      </c>
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
@@ -9801,30 +9809,30 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F2 F40:F1048576 F4:F12">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10453,16 +10461,16 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10656,16 +10664,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11728,324 +11736,324 @@
     <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H29:H1048576">
-    <cfRule type="cellIs" dxfId="99" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="185" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="186" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="187" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="188" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="95" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="102" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="103" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="87" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="95" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="96" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="83" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="89" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="90" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="91" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="92" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="67" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H9">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H9">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_903702A62FB51BCEC4DBA4FAF014D795A3CCA902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{607EF988-7EB6-405C-9F86-E471132EFCB4}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Risk_Managment_Plan_Review" sheetId="7" r:id="rId3"/>
     <sheet name="WireFrame_Review" sheetId="12" r:id="rId4"/>
-    <sheet name="ERD_Review" sheetId="13" r:id="rId5"/>
-    <sheet name="SRS_Review" sheetId="3" r:id="rId6"/>
-    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
-    <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId9"/>
+    <sheet name="SRS_Review" sheetId="3" r:id="rId5"/>
+    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId6"/>
+    <sheet name="Audit_Review" sheetId="11" r:id="rId7"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="228">
   <si>
     <t>Raised By</t>
   </si>
@@ -648,13 +644,92 @@
     <t>In the Home page, please change "Restraunt menu" title to "Foodies' Restraunts" as this is the page that contains the restraunts themselves not the restraunt menus.</t>
   </si>
   <si>
-    <t>in the nav bar a link to the home page must be added</t>
-  </si>
-  <si>
-    <t>what happen if the user forget his password</t>
-  </si>
-  <si>
-    <t>a link to the home and menu must be added</t>
+    <t>Need to go deep in each branch</t>
+  </si>
+  <si>
+    <t>WireFrame_Review</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_021</t>
+  </si>
+  <si>
+    <t>only one version of SRS</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_022</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_023</t>
+  </si>
+  <si>
+    <t>empty revision history</t>
+  </si>
+  <si>
+    <t>only old document is uploaded</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_024</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Audit_V1.0_025</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.26</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>USECASE</t>
+  </si>
+  <si>
+    <t>Update the version</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.27</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.28</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.29</t>
+  </si>
+  <si>
+    <t>version consistency with the review sheet and version history</t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove sign out from home page </t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_014</t>
+  </si>
+  <si>
+    <t>missed page ( page that has a summary of the order.
+ There will be two buttons: “Confirm” and “Cancel”)</t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_015</t>
+  </si>
+  <si>
+    <t>Add menu item page ---&gt; remove the (add item) button</t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add offer page replace(Add menu item) with Add offer </t>
+  </si>
+  <si>
+    <t>F_REVIEW_WFrame_V1.0_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add offer page ---&gt; remove the add item button</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <r>
@@ -663,7 +738,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -681,121 +755,15 @@
       <t xml:space="preserve"> NOTE: This is the nav bar after the user signs in. "Register and "Sign out" buttons will take place the "Sign out" button in the nav bar if the user has not registered or signed in.</t>
     </r>
   </si>
-  <si>
-    <t>I changed the sequence due to look and feel concepts</t>
-  </si>
-  <si>
-    <t>Need to go deep in each branch</t>
-  </si>
-  <si>
-    <t>WireFrame_Review</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_021</t>
-  </si>
-  <si>
-    <t>only one version of SRS</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_022</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_023</t>
-  </si>
-  <si>
-    <t>empty revision history</t>
-  </si>
-  <si>
-    <t>only old document is uploaded</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_024</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Audit_V1.0_025</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Aduit_V1.3_0.26</t>
-  </si>
-  <si>
-    <t>ERD</t>
-  </si>
-  <si>
-    <t>USECASE</t>
-  </si>
-  <si>
-    <t>Update the version</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Aduit_V1.3_0.27</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Aduit_V1.3_0.28</t>
-  </si>
-  <si>
-    <t>F_REVIEW_Aduit_V1.3_0.29</t>
-  </si>
-  <si>
-    <t>version consistency with the review sheet and version history</t>
-  </si>
-  <si>
-    <t>F_REVIEW_WFrame_V1.0_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove sign out from home page </t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>F_REVIEW_WFrame_V1.0_014</t>
-  </si>
-  <si>
-    <t>missed page ( page that has a summary of the order.
- There will be two buttons: “Confirm” and “Cancel”)</t>
-  </si>
-  <si>
-    <t>F_REVIEW_WFrame_V1.0_015</t>
-  </si>
-  <si>
-    <t>Add menu item page ---&gt; remove the (add item) button</t>
-  </si>
-  <si>
-    <t>F_REVIEW_WFrame_V1.0_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add offer page replace(Add menu item) with Add offer </t>
-  </si>
-  <si>
-    <t>F_REVIEW_WFrame_V1.0_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add offer page ---&gt; remove the add item button</t>
-  </si>
-  <si>
-    <t>F_REVIEW_ERD_V1.0_001</t>
-  </si>
-  <si>
-    <t>Monica Atef</t>
-  </si>
-  <si>
-    <t>F_REVIEW_ERD_V1.0_002</t>
-  </si>
-  <si>
-    <t>In offers entity, please add "restraunt name" attribute.</t>
-  </si>
-  <si>
-    <t>In the user entity, Please make the "loyalty points" attribute a calculated attribute.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,15 +784,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,12 +806,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,15 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1043,6 +989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3721,10 +3668,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -7929,7 +7876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7939,20 +7886,20 @@
       <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="71.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -7984,7 +7931,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -8012,7 +7959,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -8040,7 +7987,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -8068,7 +8015,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -8096,7 +8043,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -8124,7 +8071,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -8152,19 +8099,19 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
-    </row>
-    <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -8192,7 +8139,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -8220,7 +8167,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -8252,7 +8199,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -8280,7 +8227,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>96</v>
       </c>
@@ -8308,7 +8255,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>97</v>
       </c>
@@ -8336,7 +8283,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
@@ -8364,19 +8311,19 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="34"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -8456,7 +8403,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8469,34 +8416,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -8507,7 +8454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8517,21 +8464,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="62.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
     <col min="9" max="9" width="34" style="16" customWidth="1"/>
-    <col min="10" max="10" width="32.33203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -8563,7 +8510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
@@ -8591,7 +8538,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
@@ -8619,7 +8566,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -8647,7 +8594,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -8679,7 +8626,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -8707,7 +8654,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -8755,7 +8702,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8768,29 +8715,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="9"/>
+    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -8822,7 +8769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>173</v>
       </c>
@@ -8848,7 +8795,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>174</v>
       </c>
@@ -8862,7 +8809,7 @@
         <v>44686</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
@@ -8871,12 +8818,10 @@
       <c r="H3" s="10">
         <v>44687</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>202</v>
-      </c>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="33" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>178</v>
       </c>
@@ -8893,16 +8838,14 @@
         <v>179</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
-      <c r="I4" s="28" t="s">
-        <v>199</v>
-      </c>
+      <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="33" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>181</v>
       </c>
@@ -8925,12 +8868,10 @@
       <c r="H5" s="27">
         <v>44687</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>198</v>
-      </c>
+      <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>182</v>
       </c>
@@ -8956,33 +8897,33 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="27">
         <v>44686</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30">
+      <c r="G7" s="26"/>
+      <c r="H7" s="27">
         <v>44687</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8" spans="1:10" s="33" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>185</v>
       </c>
@@ -8999,16 +8940,16 @@
         <v>188</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28" t="s">
-        <v>200</v>
-      </c>
+      <c r="H8" s="27">
+        <v>44687</v>
+      </c>
+      <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>187</v>
       </c>
@@ -9034,7 +8975,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>190</v>
       </c>
@@ -9060,7 +9001,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>192</v>
       </c>
@@ -9086,7 +9027,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>194</v>
       </c>
@@ -9112,7 +9053,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>196</v>
       </c>
@@ -9138,23 +9079,23 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -9163,18 +9104,24 @@
       <c r="D15" s="10">
         <v>44689</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="10">
+        <v>44690</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -9183,18 +9130,24 @@
       <c r="D16" s="10">
         <v>44689</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10">
+        <v>44690</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -9203,18 +9156,24 @@
       <c r="D17" s="10">
         <v>44689</v>
       </c>
-      <c r="E17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="10">
+        <v>44690</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -9223,18 +9182,24 @@
       <c r="D18" s="10">
         <v>44689</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="10">
+        <v>44690</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -9243,26 +9208,32 @@
       <c r="D19" s="10">
         <v>44689</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="10">
+        <v>44690</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
       <c r="E23" s="11"/>
     </row>
@@ -9271,184 +9242,212 @@
     <mergeCell ref="A14:J14"/>
   </mergeCells>
   <conditionalFormatting sqref="F24:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="159" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="155" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="151" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="147" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="143" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="139" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="135" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="131" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="127" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="123" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="119" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F23">
-    <cfRule type="cellIs" dxfId="115" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F19">
-    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F19">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9456,18 +9455,12 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F20:F1048576 F1:F13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>Options!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F15:F19</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9476,408 +9469,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A3CFC9-F983-492B-BEA4-AEE18E86BD58}">
-  <dimension ref="A1:J39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="88.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" s="10">
-        <v>44690</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="10">
-        <v>44690</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" s="10">
-        <v>44690</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="10">
-        <v>44690</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B13:J13"/>
-  </mergeCells>
-  <conditionalFormatting sqref="F14:F21 F32:F38 F1:F2 F40:F1048576 F4:F12">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{063C37E4-84FF-4BD6-B9F5-038D3891CD1B}">
-          <x14:formula1>
-            <xm:f>Options!$B$1:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F32:F38 F14:F21 F40:F1048576 F1:F12</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="88.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="88.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -9909,7 +9525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -9937,7 +9553,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -9965,7 +9581,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -9993,7 +9609,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -10021,7 +9637,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -10049,7 +9665,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -10077,7 +9693,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -10105,7 +9721,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -10133,7 +9749,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -10161,7 +9777,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -10189,7 +9805,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -10217,19 +9833,19 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-    </row>
-    <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -10257,7 +9873,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -10285,7 +9901,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -10313,7 +9929,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -10341,7 +9957,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
@@ -10369,7 +9985,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -10397,7 +10013,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
@@ -10425,7 +10041,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
@@ -10453,7 +10069,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39"/>
     </row>
   </sheetData>
@@ -10479,7 +10095,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10491,29 +10107,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -10545,7 +10161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
@@ -10575,7 +10191,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
@@ -10605,61 +10221,61 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22"/>
     </row>
   </sheetData>
@@ -10681,7 +10297,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10693,8 +10309,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -10704,24 +10320,24 @@
       <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
     <col min="13" max="13" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -10759,7 +10375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
@@ -10789,7 +10405,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>113</v>
       </c>
@@ -10819,7 +10435,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>118</v>
       </c>
@@ -10849,7 +10465,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
@@ -10881,7 +10497,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -10911,7 +10527,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
@@ -10941,7 +10557,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>127</v>
       </c>
@@ -10971,7 +10587,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>133</v>
       </c>
@@ -11001,21 +10617,21 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+    </row>
+    <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>135</v>
       </c>
@@ -11049,7 +10665,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>145</v>
       </c>
@@ -11083,7 +10699,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
@@ -11121,7 +10737,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>151</v>
       </c>
@@ -11155,7 +10771,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>152</v>
       </c>
@@ -11189,7 +10805,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>154</v>
       </c>
@@ -11227,7 +10843,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
@@ -11261,7 +10877,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>161</v>
       </c>
@@ -11295,7 +10911,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>162</v>
       </c>
@@ -11327,11 +10943,11 @@
         <v>44686</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>166</v>
       </c>
@@ -11365,7 +10981,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>168</v>
       </c>
@@ -11403,7 +11019,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>170</v>
       </c>
@@ -11441,9 +11057,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -11461,7 +11077,7 @@
         <v>132</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>6</v>
@@ -11475,9 +11091,9 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -11495,7 +11111,7 @@
         <v>132</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>6</v>
@@ -11509,9 +11125,9 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -11529,7 +11145,7 @@
         <v>132</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>6</v>
@@ -11543,9 +11159,9 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>138</v>
@@ -11563,7 +11179,7 @@
         <v>132</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>6</v>
@@ -11577,9 +11193,9 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>138</v>
@@ -11597,7 +11213,7 @@
         <v>132</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>6</v>
@@ -11611,26 +11227,26 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>214</v>
+    <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>209</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>114</v>
@@ -11644,19 +11260,19 @@
       <c r="F29" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>216</v>
+      <c r="G29" s="30" t="s">
+        <v>211</v>
       </c>
       <c r="H29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>215</v>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>210</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>114</v>
@@ -11671,17 +11287,17 @@
         <v>132</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B31" s="32" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -11697,20 +11313,20 @@
         <v>132</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="B32" s="32" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="31" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -11722,15 +11338,15 @@
       <c r="F32" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="35" t="s">
-        <v>220</v>
+      <c r="G32" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="H32" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:L1"/>
   <mergeCells count="2">
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A28:L28"/>
@@ -12062,13 +11678,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>H29:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
@@ -12080,24 +11696,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -12107,7 +11723,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="41" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -12118,8 +11734,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -12127,7 +11743,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="43"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -12136,8 +11752,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -12145,7 +11761,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="43"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -12154,8 +11770,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -12163,7 +11779,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="43"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -12172,8 +11788,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -12181,7 +11797,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -12190,18 +11806,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>204</v>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="23">
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
-        <v>7</v>
-      </c>
-      <c r="L23" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="41" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -12212,16 +11828,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="23">
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
-        <v>10</v>
-      </c>
-      <c r="L24" s="43"/>
+        <v>17</v>
+      </c>
+      <c r="L24" s="41"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -12230,8 +11846,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -12239,7 +11855,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="43"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -12248,8 +11864,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="40"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -12257,7 +11873,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="43"/>
+      <c r="L26" s="41"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -12266,8 +11882,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -12275,7 +11891,7 @@
         <f>SUM(C23:C26)</f>
         <v>17</v>
       </c>
-      <c r="L27" s="43"/>
+      <c r="L27" s="41"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -12284,11 +11900,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H34" s="25"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -12298,7 +11914,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="43" t="s">
+      <c r="L42" s="41" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -12309,8 +11925,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -12318,7 +11934,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="43"/>
+      <c r="L43" s="41"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
@@ -12327,8 +11943,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="40"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -12336,7 +11952,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="43"/>
+      <c r="L44" s="41"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -12345,8 +11961,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -12354,7 +11970,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="43"/>
+      <c r="L45" s="41"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -12363,8 +11979,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -12372,7 +11988,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="43"/>
+      <c r="L46" s="41"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -4,20 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
     <sheet name="Options" sheetId="5" state="hidden" r:id="rId2"/>
     <sheet name="Risk_Managment_Plan_Review" sheetId="7" r:id="rId3"/>
     <sheet name="WireFrame_Review" sheetId="12" r:id="rId4"/>
-    <sheet name="SRS_Review" sheetId="3" r:id="rId5"/>
-    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId6"/>
-    <sheet name="Audit_Review" sheetId="11" r:id="rId7"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId8"/>
+    <sheet name="Implementation_Review" sheetId="13" r:id="rId5"/>
+    <sheet name="SRS_Review" sheetId="3" r:id="rId6"/>
+    <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
+    <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Audit_Review!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="248">
   <si>
     <t>Raised By</t>
   </si>
@@ -755,6 +759,91 @@
       <t xml:space="preserve"> NOTE: This is the nav bar after the user signs in. "Register and "Sign out" buttons will take place the "Sign out" button in the nav bar if the user has not registered or signed in.</t>
     </r>
   </si>
+  <si>
+    <t>F_REVIEW_register_001</t>
+  </si>
+  <si>
+    <t>13/5</t>
+  </si>
+  <si>
+    <r>
+      <t>according srs and sequence all error messages must be appear after user click "register "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>button</t>
+    </r>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>F_REVIEW_register_002</t>
+  </si>
+  <si>
+    <t>fullname&amp;username accept numbers</t>
+  </si>
+  <si>
+    <t>F_REVIEW_register_003</t>
+  </si>
+  <si>
+    <t>phone number accept characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already a member? LogIn must be replace with 
+“Have an account? Login here”. </t>
+  </si>
+  <si>
+    <t>F_REVIEW_login_001</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddAdmin_001</t>
+  </si>
+  <si>
+    <t>check vaildation of all fields in add admin page</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddAdmin_002</t>
+  </si>
+  <si>
+    <t>Add Admin button replace with Add</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddUser_001</t>
+  </si>
+  <si>
+    <t>Add User button replace with Add</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddUser_002</t>
+  </si>
+  <si>
+    <t>username accept numbers must be characters only so an error
+ message will appear saying that “Invalid username or password”after click login</t>
+  </si>
+  <si>
+    <t>Hagar Nasser</t>
+  </si>
+  <si>
+    <t>replace useremail with email(wirefram)</t>
+  </si>
 </sst>
 </file>
 
@@ -763,7 +852,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +869,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1019,7 +1116,35 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
+  <dxfs count="180">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3668,7 +3793,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
@@ -7614,6 +7739,35 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PMP_Review"/>
+      <sheetName val="Options"/>
+      <sheetName val="Risk_Managment_Plan_Review"/>
+      <sheetName val="WireFrame_Review"/>
+      <sheetName val="ERD_Review"/>
+      <sheetName val="SRS_Review"/>
+      <sheetName val="Sequence_Diagrams_Review"/>
+      <sheetName val="Audit_Review"/>
+      <sheetName val="Progress_Chart"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7886,20 +8040,20 @@
       <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="71.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="71.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -7931,7 +8085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -7959,7 +8113,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>79</v>
       </c>
@@ -7987,7 +8141,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -8015,7 +8169,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>81</v>
       </c>
@@ -8043,7 +8197,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>82</v>
       </c>
@@ -8071,7 +8225,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>83</v>
       </c>
@@ -8099,7 +8253,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="34"/>
       <c r="C8" s="35"/>
@@ -8111,7 +8265,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="36"/>
     </row>
-    <row r="9" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>92</v>
       </c>
@@ -8139,7 +8293,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>93</v>
       </c>
@@ -8167,7 +8321,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
@@ -8199,7 +8353,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>95</v>
       </c>
@@ -8227,7 +8381,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>96</v>
       </c>
@@ -8255,7 +8409,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>97</v>
       </c>
@@ -8283,7 +8437,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>98</v>
       </c>
@@ -8311,7 +8465,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
@@ -8323,7 +8477,7 @@
       <c r="I16" s="35"/>
       <c r="J16" s="36"/>
     </row>
-    <row r="17" spans="1:10" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>99</v>
       </c>
@@ -8357,44 +8511,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="175" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8423,27 +8577,27 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -8464,21 +8618,21 @@
       <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="62.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="34" style="16" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="32.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -8510,7 +8664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>68</v>
       </c>
@@ -8538,7 +8692,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>69</v>
       </c>
@@ -8566,7 +8720,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
@@ -8594,7 +8748,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -8626,7 +8780,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>72</v>
       </c>
@@ -8654,7 +8808,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>73</v>
       </c>
@@ -8684,16 +8838,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8716,28 +8870,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="54" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="9"/>
+    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -8769,7 +8923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>173</v>
       </c>
@@ -8795,7 +8949,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>174</v>
       </c>
@@ -8821,7 +8975,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" s="33" customFormat="1" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="33" customFormat="1" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>178</v>
       </c>
@@ -8845,7 +8999,7 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
-    <row r="5" spans="1:10" s="33" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="33" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>181</v>
       </c>
@@ -8871,7 +9025,7 @@
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>182</v>
       </c>
@@ -8897,7 +9051,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>183</v>
       </c>
@@ -8923,7 +9077,7 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="1:10" s="33" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="33" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>185</v>
       </c>
@@ -8949,7 +9103,7 @@
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
     </row>
-    <row r="9" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>187</v>
       </c>
@@ -8975,7 +9129,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>190</v>
       </c>
@@ -9001,7 +9155,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>192</v>
       </c>
@@ -9027,7 +9181,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>194</v>
       </c>
@@ -9053,7 +9207,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>196</v>
       </c>
@@ -9079,7 +9233,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -9091,7 +9245,7 @@
       <c r="I14" s="35"/>
       <c r="J14" s="36"/>
     </row>
-    <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>216</v>
       </c>
@@ -9117,7 +9271,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>218</v>
       </c>
@@ -9143,7 +9297,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>220</v>
       </c>
@@ -9169,7 +9323,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>222</v>
       </c>
@@ -9195,7 +9349,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>224</v>
       </c>
@@ -9221,233 +9375,256 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="7"/>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="E23" s="11"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A20:J20"/>
   </mergeCells>
-  <conditionalFormatting sqref="F24:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="159" priority="65" operator="equal">
+  <conditionalFormatting sqref="F23:F1048576 F1:F3">
+    <cfRule type="cellIs" dxfId="163" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="155" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="151" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="147" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="143" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="139" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="135" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="131" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="127" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="123" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="119" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="28" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F23">
-    <cfRule type="cellIs" dxfId="115" priority="21" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="22" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="23" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9460,7 +9637,7 @@
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
+          <xm:sqref>F1:F20 F23:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9469,6 +9646,272 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="39.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E12" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'F:\monika\QA_Foodies\Monitor and Control\[F_Review.xlsx]Options'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
@@ -9479,21 +9922,21 @@
       <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="88.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="88.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -9525,7 +9968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -9553,7 +9996,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
     </row>
-    <row r="3" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
@@ -9581,7 +10024,7 @@
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -9609,7 +10052,7 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>50</v>
       </c>
@@ -9637,7 +10080,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>51</v>
       </c>
@@ -9665,7 +10108,7 @@
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -9693,7 +10136,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -9721,7 +10164,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -9749,7 +10192,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>55</v>
       </c>
@@ -9777,7 +10220,7 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
@@ -9805,7 +10248,7 @@
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>57</v>
       </c>
@@ -9833,7 +10276,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="34"/>
       <c r="C13" s="35"/>
@@ -9845,7 +10288,7 @@
       <c r="I13" s="35"/>
       <c r="J13" s="36"/>
     </row>
-    <row r="14" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -9873,7 +10316,7 @@
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
     </row>
-    <row r="15" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -9901,7 +10344,7 @@
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
     </row>
-    <row r="16" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -9929,7 +10372,7 @@
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
@@ -9957,7 +10400,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
     </row>
-    <row r="18" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
@@ -9985,7 +10428,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
     </row>
-    <row r="19" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -10013,7 +10456,7 @@
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
     </row>
-    <row r="20" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
@@ -10041,7 +10484,7 @@
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
     </row>
-    <row r="21" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
@@ -10069,7 +10512,7 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39"/>
     </row>
   </sheetData>
@@ -10107,7 +10550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
@@ -10115,21 +10558,21 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="50.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -10161,7 +10604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>104</v>
       </c>
@@ -10191,7 +10634,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>105</v>
       </c>
@@ -10221,61 +10664,61 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22"/>
     </row>
   </sheetData>
@@ -10309,7 +10752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
@@ -10320,24 +10763,24 @@
       <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" customWidth="1"/>
     <col min="13" max="13" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
@@ -10375,7 +10818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
@@ -10405,7 +10848,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>113</v>
       </c>
@@ -10435,7 +10878,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>118</v>
       </c>
@@ -10465,7 +10908,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>120</v>
       </c>
@@ -10497,7 +10940,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>121</v>
       </c>
@@ -10527,7 +10970,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
@@ -10557,7 +11000,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>127</v>
       </c>
@@ -10587,7 +11030,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>133</v>
       </c>
@@ -10617,7 +11060,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
@@ -10631,7 +11074,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
     </row>
-    <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>135</v>
       </c>
@@ -10665,7 +11108,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>145</v>
       </c>
@@ -10699,7 +11142,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>149</v>
       </c>
@@ -10737,7 +11180,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>151</v>
       </c>
@@ -10771,7 +11214,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>152</v>
       </c>
@@ -10805,7 +11248,7 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>154</v>
       </c>
@@ -10843,7 +11286,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>160</v>
       </c>
@@ -10877,7 +11320,7 @@
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>161</v>
       </c>
@@ -10911,7 +11354,7 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>162</v>
       </c>
@@ -10947,7 +11390,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>166</v>
       </c>
@@ -10981,7 +11424,7 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>168</v>
       </c>
@@ -11019,7 +11462,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>170</v>
       </c>
@@ -11057,7 +11500,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>200</v>
       </c>
@@ -11091,7 +11534,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>202</v>
       </c>
@@ -11125,7 +11568,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>203</v>
       </c>
@@ -11159,7 +11602,7 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>206</v>
       </c>
@@ -11193,7 +11636,7 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>207</v>
       </c>
@@ -11227,7 +11670,7 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -11241,7 +11684,7 @@
       <c r="K28" s="38"/>
       <c r="L28" s="39"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>208</v>
       </c>
@@ -11267,7 +11710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>212</v>
       </c>
@@ -11293,7 +11736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>213</v>
       </c>
@@ -11319,7 +11762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>214</v>
       </c>
@@ -11696,7 +12139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N46"/>
   <sheetViews>
@@ -11704,15 +12147,15 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
         <v>8</v>
       </c>
@@ -11734,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="40"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -11752,7 +12195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="40"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
@@ -11770,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="40"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
@@ -11788,7 +12231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -11806,7 +12249,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
         <v>199</v>
       </c>
@@ -11815,7 +12258,7 @@
       </c>
       <c r="C23" s="23">
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="41" t="s">
         <v>76</v>
@@ -11828,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
@@ -11846,7 +12289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
@@ -11864,7 +12307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
@@ -11882,14 +12325,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="23">
         <f>SUM(C23:C26)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L27" s="41"/>
       <c r="M27" s="24" t="s">
@@ -11900,10 +12343,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H34" s="25"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="40" t="s">
         <v>111</v>
       </c>
@@ -11925,7 +12368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
@@ -11943,7 +12386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
@@ -11961,7 +12404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
@@ -11979,7 +12422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="23" t="s">
         <v>9</v>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="14_{9DCE3201-9654-4435-99AF-AD045B2B1C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E7E78FB-30E2-4D03-B4F9-F546B3CCB6CA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="258">
   <si>
     <t>Raised By</t>
   </si>
@@ -697,9 +700,6 @@
   </si>
   <si>
     <t>F_REVIEW_Aduit_V1.3_0.29</t>
-  </si>
-  <si>
-    <t>version consistency with the review sheet and version history</t>
   </si>
   <si>
     <t>F_REVIEW_WFrame_V1.0_013</t>
@@ -766,13 +766,87 @@
     <t>13/5</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>F_REVIEW_register_002</t>
+  </si>
+  <si>
+    <t>fullname&amp;username accept numbers</t>
+  </si>
+  <si>
+    <t>F_REVIEW_register_003</t>
+  </si>
+  <si>
+    <t>phone number accept characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already a member? LogIn must be replace with 
+“Have an account? Login here”. </t>
+  </si>
+  <si>
+    <t>F_REVIEW_login_001</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddAdmin_001</t>
+  </si>
+  <si>
+    <t>check vaildation of all fields in add admin page</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddAdmin_002</t>
+  </si>
+  <si>
+    <t>Add Admin button replace with Add</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddUser_001</t>
+  </si>
+  <si>
+    <t>Add User button replace with Add</t>
+  </si>
+  <si>
+    <t>F_REVIEW_AddUser_002</t>
+  </si>
+  <si>
+    <t>username accept numbers must be characters only so an error
+ message will appear saying that “Invalid username or password”after click login</t>
+  </si>
+  <si>
+    <t>Hagar Nasser</t>
+  </si>
+  <si>
+    <t>replace useremail with email(wirefram)</t>
+  </si>
+  <si>
+    <t>13/5/2022</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Hager ElSayed</t>
+  </si>
+  <si>
+    <t>Ensure version consistency with the review sheet and version history</t>
+  </si>
+  <si>
+    <t>Redraw the ERD</t>
+  </si>
+  <si>
+    <t>Redraw the UseCase</t>
+  </si>
+  <si>
+    <t>14/5/2022</t>
+  </si>
+  <si>
     <r>
-      <t>according srs and sequence all error messages must be appear after user click "register "</t>
+      <t>according srs and sequence all error messages must be appear after user click "register"</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -782,7 +856,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -792,67 +866,27 @@
     </r>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>F_REVIEW_register_002</t>
-  </si>
-  <si>
-    <t>fullname&amp;username accept numbers</t>
-  </si>
-  <si>
-    <t>F_REVIEW_register_003</t>
-  </si>
-  <si>
-    <t>phone number accept characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Already a member? LogIn must be replace with 
-“Have an account? Login here”. </t>
-  </si>
-  <si>
-    <t>F_REVIEW_login_001</t>
-  </si>
-  <si>
-    <t>F_REVIEW_AddAdmin_001</t>
-  </si>
-  <si>
-    <t>check vaildation of all fields in add admin page</t>
-  </si>
-  <si>
-    <t>F_REVIEW_AddAdmin_002</t>
-  </si>
-  <si>
-    <t>Add Admin button replace with Add</t>
-  </si>
-  <si>
-    <t>F_REVIEW_AddUser_001</t>
-  </si>
-  <si>
-    <t>Add User button replace with Add</t>
-  </si>
-  <si>
-    <t>F_REVIEW_AddUser_002</t>
-  </si>
-  <si>
-    <t>username accept numbers must be characters only so an error
- message will appear saying that “Invalid username or password”after click login</t>
-  </si>
-  <si>
-    <t>Hagar Nasser</t>
-  </si>
-  <si>
-    <t>replace useremail with email(wirefram)</t>
+    <t>Feature removed by the customer</t>
+  </si>
+  <si>
+    <t>17/5/2022</t>
+  </si>
+  <si>
+    <t>The SRS does not say that the error messages
+ will appear after the user clicks on the button.</t>
+  </si>
+  <si>
+    <t>Validation is added and this issue is resolved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,15 +908,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -909,6 +957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1111,12 +1165,369 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="180">
+  <dxfs count="228">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3793,10 +4204,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5175,16 +5586,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8030,7 +8441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8511,44 +8922,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="179" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="175" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8557,7 +8968,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8570,7 +8981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8608,7 +9019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8838,16 +9249,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8856,7 +9267,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -8869,11 +9280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8963,7 +9374,7 @@
         <v>44686</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>6</v>
@@ -8992,10 +9403,12 @@
         <v>179</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
+      <c r="H4" s="10">
+        <v>44687</v>
+      </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
     </row>
@@ -9094,7 +9507,7 @@
         <v>188</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G8" s="26"/>
       <c r="H8" s="27">
@@ -9247,7 +9660,7 @@
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>101</v>
@@ -9259,7 +9672,7 @@
         <v>44689</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
@@ -9273,7 +9686,7 @@
     </row>
     <row r="16" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>101</v>
@@ -9285,7 +9698,7 @@
         <v>44689</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>6</v>
@@ -9299,7 +9712,7 @@
     </row>
     <row r="17" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>101</v>
@@ -9311,7 +9724,7 @@
         <v>44689</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>6</v>
@@ -9325,7 +9738,7 @@
     </row>
     <row r="18" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>101</v>
@@ -9337,10 +9750,10 @@
         <v>44689</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="10">
@@ -9351,7 +9764,7 @@
     </row>
     <row r="19" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>101</v>
@@ -9363,10 +9776,10 @@
         <v>44689</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="10">
@@ -9387,44 +9800,50 @@
       <c r="I20" s="35"/>
       <c r="J20" s="36"/>
     </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H21" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="D21" t="s">
-        <v>229</v>
-      </c>
-      <c r="E21" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="29" t="s">
         <v>246</v>
-      </c>
-      <c r="D22" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -9433,198 +9852,240 @@
     <mergeCell ref="A20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="163" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="159" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="155" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="151" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="147" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="143" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="139" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="135" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="131" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="127" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="123" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="115" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="111" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="107" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="16" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21 H21">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9633,11 +10094,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F20 F23:F1048576</xm:sqref>
+          <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9646,260 +10107,303 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="46" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="46" customWidth="1"/>
+    <col min="5" max="16384" width="50.5546875" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="42" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I4" s="46" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H7" s="46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C9" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D9" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C10" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D10" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C12" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="D12" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" t="s">
-        <v>231</v>
+      <c r="F13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="I13" s="46" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>'F:\monika\QA_Foodies\Monitor and Control\[F_Review.xlsx]Options'!#REF!</xm:f>
           </x14:formula1>
@@ -9912,7 +10416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10520,16 +11024,16 @@
     <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10538,7 +11042,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10551,7 +11055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10723,16 +11227,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="95" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10740,7 +11244,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10753,31 +11257,32 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.6640625" customWidth="1"/>
-    <col min="13" max="13" width="36" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="8" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -10841,7 +11346,7 @@
         <v>115</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="10"/>
@@ -10871,7 +11376,7 @@
         <v>117</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="10"/>
@@ -10901,7 +11406,7 @@
         <v>122</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="10"/>
@@ -10931,7 +11436,7 @@
         <v>134</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="10"/>
@@ -10963,7 +11468,7 @@
         <v>119</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="10"/>
@@ -10993,7 +11498,7 @@
         <v>128</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="10"/>
@@ -11023,7 +11528,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="10"/>
@@ -11053,7 +11558,7 @@
         <v>123</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="10"/>
@@ -11377,7 +11882,7 @@
         <v>163</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>141</v>
@@ -11447,7 +11952,7 @@
         <v>164</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>141</v>
@@ -11695,7 +12200,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>116</v>
+        <v>247</v>
       </c>
       <c r="E29" s="10">
         <v>44688</v>
@@ -11704,10 +12209,16 @@
         <v>132</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
+        <v>250</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -11721,7 +12232,7 @@
         <v>114</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="E30" s="10">
         <v>44688</v>
@@ -11729,11 +12240,17 @@
       <c r="F30" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
+      <c r="G30" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -11747,7 +12264,7 @@
         <v>114</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="E31" s="10">
         <v>44688</v>
@@ -11755,11 +12272,17 @@
       <c r="F31" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H31" t="s">
-        <v>7</v>
+      <c r="H31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -11773,7 +12296,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="E32" s="10">
         <v>44688</v>
@@ -11782,243 +12305,347 @@
         <v>132</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
+        <v>249</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A28:L28"/>
   </mergeCells>
-  <conditionalFormatting sqref="H29:H1048576">
-    <cfRule type="cellIs" dxfId="91" priority="185" operator="equal">
+  <conditionalFormatting sqref="H33:H1048576">
+    <cfRule type="cellIs" dxfId="143" priority="225" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="226" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="227" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="228" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="87" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="141" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="143" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="144" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="137" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="79" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="75" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="131" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="132" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="87" priority="73" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="74" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="83" priority="69" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="70" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="79" priority="65" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="75" priority="61" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="62" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="71" priority="57" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="60" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="67" priority="53" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="54" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H32">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H32">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="71" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="74" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="63" priority="85" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="87" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="88" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="59" priority="81" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="82" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="83" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="84" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="55" priority="69" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="70" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="71" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="72" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="51" priority="65" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="66" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="67" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="68" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H9">
-    <cfRule type="cellIs" dxfId="47" priority="61" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="62" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="63" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="64" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H9">
-    <cfRule type="cellIs" dxfId="43" priority="57" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="58" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="60" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
-      <formula>"Need Approval"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
-      <formula>"In progress"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
-      <formula>"Closed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
     <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -12032,7 +12659,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H7:H9">
     <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -12046,7 +12673,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H7:H9">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -12060,7 +12687,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H3:H6">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -12074,7 +12701,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H3:H6">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -12088,7 +12715,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H2">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -12102,7 +12729,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H2">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -12121,17 +12748,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H29:H1048576</xm:sqref>
+          <xm:sqref>H33:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H9 H11:H27</xm:sqref>
+          <xm:sqref>H11:H27 H29:H32 H1:H9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12140,10 +12767,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -12258,7 +12885,7 @@
       </c>
       <c r="C23" s="23">
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" s="41" t="s">
         <v>76</v>
@@ -12278,7 +12905,7 @@
       </c>
       <c r="C24" s="23">
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L24" s="41"/>
       <c r="M24" s="24" t="s">
@@ -12365,7 +12992,7 @@
       </c>
       <c r="N42" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Open")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -12383,7 +13010,7 @@
       </c>
       <c r="N43" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -12401,7 +13028,7 @@
       </c>
       <c r="N44" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"In Progress")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
@@ -12419,7 +13046,7 @@
       </c>
       <c r="N45" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Need Approval")</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="14_{9DCE3201-9654-4435-99AF-AD045B2B1C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E7E78FB-30E2-4D03-B4F9-F546B3CCB6CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF1A2C-4FD9-4842-BF77-49E0CF1BD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="260">
   <si>
     <t>Raised By</t>
   </si>
@@ -877,6 +875,12 @@
   </si>
   <si>
     <t>Validation is added and this issue is resolved.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_SRS_V1.2_020</t>
+  </si>
+  <si>
+    <t>change the discount amount in offers to be float not interger</t>
   </si>
 </sst>
 </file>
@@ -967,7 +971,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1047,12 +1051,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1141,6 +1167,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1165,25 +1212,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,91 +1238,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="216">
     <dxf>
       <fill>
         <patternFill>
@@ -3208,7 +3171,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
@@ -8666,15 +8629,15 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -8878,15 +8841,15 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -8922,44 +8885,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="227" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="223" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9249,16 +9212,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9647,16 +9610,16 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="36"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -9789,16 +9752,16 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -9852,240 +9815,240 @@
     <mergeCell ref="A20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="211" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="207" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="203" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="199" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="195" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="191" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="187" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="183" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="179" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="171" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="167" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="159" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 H21">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10110,291 +10073,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" style="46" customWidth="1"/>
-    <col min="5" max="16384" width="50.5546875" style="46"/>
+    <col min="1" max="1" width="37.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="50.5546875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:10" s="36" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="34" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="39" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="38" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="38" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="38" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:10" ht="78" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+    <row r="6" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="38" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="I9" s="46" t="s">
+      <c r="I9" s="38" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="38" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="38" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="46" t="s">
+      <c r="H13" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="I13" s="46" t="s">
+      <c r="I13" s="38" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10419,11 +10382,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A22:XFD22"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10782,15 +10745,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -11016,24 +10979,65 @@
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="49">
+        <v>44700</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="51"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="49"/>
+    </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B23:J23"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="151" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11227,16 +11231,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11566,18 +11570,18 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -12176,18 +12180,18 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -12324,282 +12328,282 @@
     <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:H1048576">
-    <cfRule type="cellIs" dxfId="143" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="225" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="226" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="227" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="228" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="139" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="135" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="137" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="138" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="139" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="133" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="134" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="136" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="129" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="130" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="131" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="132" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="115" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="125" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="126" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="127" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="128" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="111" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="107" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="109" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="103" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="99" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="101" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="87" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="83" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="79" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="75" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="71" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="67" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="59" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="55" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12783,7 +12787,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -12793,7 +12797,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="48" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -12801,11 +12805,11 @@
       </c>
       <c r="N3" s="4">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -12813,7 +12817,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -12823,7 +12827,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -12831,7 +12835,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="48"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -12841,7 +12845,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -12849,7 +12853,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -12859,7 +12863,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -12867,17 +12871,17 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N7" s="4">
         <f>SUM(N3:N6)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="47" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -12887,7 +12891,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="48" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -12899,7 +12903,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
@@ -12907,7 +12911,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
         <v>19</v>
       </c>
-      <c r="L24" s="41"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -12917,7 +12921,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -12925,7 +12929,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="41"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -12935,7 +12939,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -12943,7 +12947,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="41"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -12953,7 +12957,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -12961,7 +12965,7 @@
         <f>SUM(C23:C26)</f>
         <v>19</v>
       </c>
-      <c r="L27" s="41"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -12974,7 +12978,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="47" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -12984,7 +12988,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="41" t="s">
+      <c r="L42" s="48" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -12996,7 +13000,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -13004,7 +13008,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="41"/>
+      <c r="L43" s="48"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
@@ -13014,7 +13018,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -13022,7 +13026,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="41"/>
+      <c r="L44" s="48"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -13032,7 +13036,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -13040,7 +13044,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="41"/>
+      <c r="L45" s="48"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -13050,7 +13054,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -13058,7 +13062,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="41"/>
+      <c r="L46" s="48"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BF1A2C-4FD9-4842-BF77-49E0CF1BD669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCBE76D-DDD9-4507-BEF7-F23984FEE0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="261">
   <si>
     <t>Raised By</t>
   </si>
@@ -881,6 +883,9 @@
   </si>
   <si>
     <t>change the discount amount in offers to be float not interger</t>
+  </si>
+  <si>
+    <t>marina</t>
   </si>
 </sst>
 </file>
@@ -1188,6 +1193,24 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1195,6 +1218,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1212,33 +1238,68 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="224">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3171,10 +3232,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8629,15 +8690,15 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -8841,15 +8902,15 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -8885,44 +8946,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="215" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="211" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="207" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9212,16 +9273,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="203" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9246,7 +9307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -9610,16 +9671,16 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -9752,16 +9813,16 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="41"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -9815,240 +9876,240 @@
     <mergeCell ref="A20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="199" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="195" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="191" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="187" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="183" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="179" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="175" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="171" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="167" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="163" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="159" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="155" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="151" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="147" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 H21">
-    <cfRule type="cellIs" dxfId="143" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="139" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10348,16 +10409,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10383,10 +10444,10 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10745,15 +10806,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -10981,43 +11042,47 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
-    </row>
-    <row r="24" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="49"/>
+    </row>
+    <row r="24" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>258</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="41">
         <v>44700</v>
       </c>
-      <c r="E24" s="50" t="s">
+      <c r="E24" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="51"/>
+      <c r="F24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="43">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F39"/>
@@ -11028,16 +11093,30 @@
     <mergeCell ref="B23:J23"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="127" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11050,7 +11129,7 @@
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F12 F14:F21 F40:F1048576 F32:F38</xm:sqref>
+          <xm:sqref>F1:F12 F14:F21 F40:F1048576 F32:F38 F24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11231,16 +11310,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="123" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11265,7 +11344,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
@@ -11570,18 +11649,18 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="46"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -12180,18 +12259,18 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -12328,422 +12407,422 @@
     <mergeCell ref="A28:L28"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:H1048576">
-    <cfRule type="cellIs" dxfId="119" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="225" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="226" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="227" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="228" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="111" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="137" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="138" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="139" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="140" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="107" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="133" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="134" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="135" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="136" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="103" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="129" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="130" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="131" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="132" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="99" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="125" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="126" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="127" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="128" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="95" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="121" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="91" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="87" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="105" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="83" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H32">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H32">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12787,7 +12866,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -12797,7 +12876,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="55" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -12805,11 +12884,11 @@
       </c>
       <c r="N3" s="4">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"Open")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -12817,17 +12896,17 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="48"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="4">
         <f>COUNTIFS(SRS_Review!F2:F1048576,"Closed")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -12835,7 +12914,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="48"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -12845,7 +12924,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -12853,7 +12932,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="48"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -12863,7 +12942,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -12871,7 +12950,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="48"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -12881,7 +12960,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="54" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -12891,7 +12970,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="55" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -12903,7 +12982,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
@@ -12911,7 +12990,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
         <v>19</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -12921,7 +13000,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -12929,7 +13008,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="48"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -12939,7 +13018,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -12947,7 +13026,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -12957,7 +13036,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -12965,7 +13044,7 @@
         <f>SUM(C23:C26)</f>
         <v>19</v>
       </c>
-      <c r="L27" s="48"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -12978,7 +13057,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="54" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -12988,7 +13067,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="48" t="s">
+      <c r="L42" s="55" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -13000,7 +13079,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -13008,7 +13087,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="48"/>
+      <c r="L43" s="55"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
@@ -13018,7 +13097,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -13026,7 +13105,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="48"/>
+      <c r="L44" s="55"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -13036,7 +13115,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -13044,7 +13123,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="48"/>
+      <c r="L45" s="55"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -13054,7 +13133,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -13062,7 +13141,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="48"/>
+      <c r="L46" s="55"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCBE76D-DDD9-4507-BEF7-F23984FEE0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE08043A-9993-47F1-ADCA-5AF5C1198DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="280">
   <si>
     <t>Raised By</t>
   </si>
@@ -886,6 +884,63 @@
   </si>
   <si>
     <t>marina</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.4_031</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Monica Atef</t>
+  </si>
+  <si>
+    <t>Replace the integration and unit testing with the Validation Test</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.4_032</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>Hager Nasser</t>
+  </si>
+  <si>
+    <t>Test Data should be provided</t>
+  </si>
+  <si>
+    <t>precondition testing file</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.4_033</t>
+  </si>
+  <si>
+    <t>Write the effort and time estmation of task</t>
+  </si>
+  <si>
+    <t>ImpactAnalysis</t>
+  </si>
+  <si>
+    <t>Marina hatem</t>
+  </si>
+  <si>
+    <t>in impact analysis we neded to specify the time or in trello</t>
+  </si>
+  <si>
+    <t>put the old reviews in adyuit file</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.4_034</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.4_035</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Aduit_V1.3_0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove the pop of the login successfully </t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1238,12 +1293,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="224">
+  <dxfs count="228">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5610,10 +5696,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -8946,44 +9032,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="223" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="219" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9273,16 +9359,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="211" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9876,240 +9962,240 @@
     <mergeCell ref="A20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="207" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="203" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="199" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="195" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="191" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="187" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="183" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="179" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="175" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="171" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="167" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="163" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="159" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="155" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 H21">
-    <cfRule type="cellIs" dxfId="151" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="147" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10409,16 +10495,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="139" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10443,7 +10529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -11093,30 +11179,30 @@
     <mergeCell ref="B23:J23"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="135" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11341,13 +11427,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12400,429 +12486,627 @@
         <v>252</v>
       </c>
     </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="10">
+        <v>44688</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="53"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="56">
+        <v>44702</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E36" s="56">
+        <v>44702</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="56">
+        <v>44702</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="56">
+        <v>44702</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="56">
+        <v>44702</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A34:L34"/>
   </mergeCells>
-  <conditionalFormatting sqref="H33:H1048576">
-    <cfRule type="cellIs" dxfId="127" priority="225" operator="equal">
+  <conditionalFormatting sqref="H35:H1048576">
+    <cfRule type="cellIs" dxfId="127" priority="233" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="234" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="235" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="236" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="149" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="151" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="119" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="115" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="111" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="137" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="138" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="139" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="107" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="133" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="134" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="136" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="103" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="129" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="130" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="131" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="132" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="99" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="117" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="119" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="95" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="91" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="109" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="87" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="83" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="71" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="67" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="63" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="59" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="55" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H32">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+  <conditionalFormatting sqref="H29:H31 H33">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H32">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+  <conditionalFormatting sqref="H29:H31 H33">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12835,13 +13119,13 @@
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H33:H1048576</xm:sqref>
+          <xm:sqref>H35:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
           <x14:formula1>
             <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H11:H27 H29:H32 H1:H9</xm:sqref>
+          <xm:sqref>H11:H27 H1:H9 H29:H33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13075,7 +13359,7 @@
       </c>
       <c r="N42" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Open")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
@@ -13093,7 +13377,7 @@
       </c>
       <c r="N43" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
@@ -13147,7 +13431,7 @@
       </c>
       <c r="N46" s="24">
         <f>SUM(N42:N45)</f>
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE08043A-9993-47F1-ADCA-5AF5C1198DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E159D18-4CAE-433C-B33C-39F62B59F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,6 +1266,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,9 +1294,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8776,15 +8776,15 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="49"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -8988,15 +8988,15 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -9757,16 +9757,16 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -9899,16 +9899,16 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -10892,15 +10892,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -11128,15 +11128,15 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="50"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
@@ -11735,18 +11735,18 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="53"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -12345,18 +12345,18 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="53"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -12519,18 +12519,18 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="53"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -12545,7 +12545,7 @@
       <c r="D35" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="47">
         <v>44702</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -12568,7 +12568,7 @@
       <c r="D36" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="47">
         <v>44702</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -12591,7 +12591,7 @@
       <c r="D37" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="E37" s="56">
+      <c r="E37" s="47">
         <v>44702</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -12614,7 +12614,7 @@
       <c r="D38" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E38" s="56">
+      <c r="E38" s="47">
         <v>44702</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -12637,7 +12637,7 @@
       <c r="D39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="56">
+      <c r="E39" s="47">
         <v>44702</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -13150,7 +13150,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -13160,7 +13160,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -13172,7 +13172,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -13180,7 +13180,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="55"/>
+      <c r="L4" s="56"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -13190,7 +13190,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -13198,7 +13198,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="55"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -13208,7 +13208,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -13216,7 +13216,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="55"/>
+      <c r="L6" s="56"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -13226,7 +13226,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -13234,7 +13234,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -13244,7 +13244,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -13254,7 +13254,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="55" t="s">
+      <c r="L23" s="56" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -13266,7 +13266,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
@@ -13274,7 +13274,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
         <v>19</v>
       </c>
-      <c r="L24" s="55"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -13284,7 +13284,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -13292,7 +13292,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="55"/>
+      <c r="L25" s="56"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -13302,7 +13302,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -13310,7 +13310,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="55"/>
+      <c r="L26" s="56"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -13320,7 +13320,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -13328,7 +13328,7 @@
         <f>SUM(C23:C26)</f>
         <v>19</v>
       </c>
-      <c r="L27" s="55"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -13341,7 +13341,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="55" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -13351,7 +13351,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="55" t="s">
+      <c r="L42" s="56" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -13363,7 +13363,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -13371,7 +13371,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="55"/>
+      <c r="L43" s="56"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
@@ -13381,7 +13381,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -13389,7 +13389,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="55"/>
+      <c r="L44" s="56"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -13399,7 +13399,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -13407,7 +13407,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="55"/>
+      <c r="L45" s="56"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -13417,7 +13417,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -13425,7 +13425,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="55"/>
+      <c r="L46" s="56"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E159D18-4CAE-433C-B33C-39F62B59F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2E159D18-4CAE-433C-B33C-39F62B59F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C787AD-37C4-43F9-BA46-9C66560AA454}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,17 @@
     <sheet name="SRS_Review" sheetId="3" r:id="rId6"/>
     <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
     <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId9"/>
+    <sheet name="TestCase_Part1_Review" sheetId="14" r:id="rId9"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="318">
   <si>
     <t>Raised By</t>
   </si>
@@ -941,6 +944,131 @@
   </si>
   <si>
     <t xml:space="preserve">Remove the pop of the login successfully </t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddOffer_TC_V1.0_001</t>
+  </si>
+  <si>
+    <t>Noura Amr</t>
+  </si>
+  <si>
+    <t>26/5/2022</t>
+  </si>
+  <si>
+    <t>In the testcases steps, write only the actions that the 
+admin will perform and do not mention redirections.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddOffer_TC_V1.0_002</t>
+  </si>
+  <si>
+    <t>In Test case with id "TC_F_AddOffer_Admin_002",
+add restraunt name in test data.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddOffer_TC_V1.0_003</t>
+  </si>
+  <si>
+    <t>In any testcases that have blank test data, 
+remove the space from inside the double quotations to avoid confusion with spaces.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddOffer_TC_V1.0_004</t>
+  </si>
+  <si>
+    <t>Test case "TC_F_AddOffer_Admin_017" is duplicate.
+ It is the same as "F_AddOffer_Admin_003".
+Please remove it.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddRestraunt_TC_V1.0_001</t>
+  </si>
+  <si>
+    <t>Test case "TC_F_AddResturant_Admin_002" is duplicate. You are already verifying 
+that add button redirects you to AddMenuItem page in test case "TC_F_AddResturant_Admin_001"</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddRestraunt_TC_V1.0_002</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddRestraunt_TC_V1.0_003</t>
+  </si>
+  <si>
+    <t>In test case "TC_F_AddResturant_Admin_005",
+ Add the restraunt name in test data as blank.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddRestraunt_TC_V1.0_004</t>
+  </si>
+  <si>
+    <t>In test case "TC_F_AddResturant_Admin_006",
+ Add the restraunt logo in test data as blank.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddRestraunt_TC_V1.0_005</t>
+  </si>
+  <si>
+    <t>In test case "TC_F_AddResturant_Admin_007",
+ Add the restraunt name and restraunt logo in test data as blank.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddRestraunt_TC_V1.0_006</t>
+  </si>
+  <si>
+    <t>In test cases "TC_F_AddResturant_Admin_012" and "TC_F_AddResturant_Admin_013" the test description is incorrect. You should verify that those extentions are unacceptable.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddMenuItem_TC_V1.0_001</t>
+  </si>
+  <si>
+    <t>In the testcases steps, write only the actions that the admin will perform and do not mention redirections.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddMenuItem_TC_V1.0_002</t>
+  </si>
+  <si>
+    <t>In test case "TC_F_AddMenuItem_Admin_002", in the description, the 'ok' button is the one that redirects to the admin home page not 'add' button.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddMenuItem_TC_V1.0_003</t>
+  </si>
+  <si>
+    <t>In test case "TC_F_AddMenuItem_Admin_003", in the test steps, the user will have to login only.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddMenuItem_TC_V1.0_004</t>
+  </si>
+  <si>
+    <t>Use verify verb in test cases description instead of other verbs.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddMenuItem_TC_V1.0_005</t>
+  </si>
+  <si>
+    <t>In test case "TC_F_AddMenuItem_Admin_008", in test data add blank item name.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_Admin_AddMenuItem_TC_V1.0_006</t>
+  </si>
+  <si>
+    <t>Make the assumed expected results fields with the orange color.</t>
+  </si>
+  <si>
+    <t>F_REVIEW_User_HomePage_TC_V1.0_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case "TC_F_Home_User_002" is duplicate as you already verify
+the redirection to offers page in test case "TC_F_Home_User_001". </t>
+  </si>
+  <si>
+    <t>F_REVIEW_User_HomePage_TC_V1.0_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test case "TC_F_Home_User_004" is duplicate as you already verify
+the redirection to the restraunt's menu page in test case "TC_F_Home_User_003". </t>
+  </si>
+  <si>
+    <t>F_REVIEW_User_OffersAndPromotions_TC_V1.0_001</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1027,6 +1155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1296,12 +1430,158 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="248">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9032,44 +9312,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="227" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="223" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="219" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9087,6 +9367,321 @@
       </x14:dataValidations>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A3:N46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="4">
+        <f>COUNTIFS(SRS_Review!F2:F1048576,"Open")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
+        <v>14</v>
+      </c>
+      <c r="L4" s="56"/>
+      <c r="M4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4">
+        <f>COUNTIFS(SRS_Review!F2:F1048576,"Closed")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="55"/>
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="14">
+        <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="56"/>
+      <c r="M5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="15">
+        <f>COUNTIFS(SRS_Review!F2:F1048576,"In Progress")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="55"/>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="14">
+        <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="15">
+        <f>COUNTIFS(SRS_Review!F2:F1048576,"Need Approval")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="55"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <f>SUM(C3:C6)</f>
+        <v>14</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
+        <f>SUM(N3:N6)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="24">
+        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Open")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
+        <v>19</v>
+      </c>
+      <c r="L24" s="56"/>
+      <c r="M24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="24">
+        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Closed")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="55"/>
+      <c r="B25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="56"/>
+      <c r="M25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="24">
+        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"In Progress")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="23">
+        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="56"/>
+      <c r="M26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="24">
+        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Need Approval")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="55"/>
+      <c r="B27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="23">
+        <f>SUM(C23:C26)</f>
+        <v>19</v>
+      </c>
+      <c r="L27" s="56"/>
+      <c r="M27" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="24">
+        <f>SUM(N23:N26)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H34" s="25"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="23">
+        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="24">
+        <f>COUNTIF(Audit_Review!H2:H1048576,"Open")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="55"/>
+      <c r="B43" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="23">
+        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
+        <v>2</v>
+      </c>
+      <c r="L43" s="56"/>
+      <c r="M43" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="24">
+        <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="55"/>
+      <c r="B44" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="23">
+        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="56"/>
+      <c r="M44" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="N44" s="24">
+        <f>COUNTIF(Audit_Review!H2:H1048576,"In Progress")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="55"/>
+      <c r="B45" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="23">
+        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="56"/>
+      <c r="M45" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="24">
+        <f>COUNTIF(Audit_Review!H2:H1048576,"Need Approval")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="55"/>
+      <c r="B46" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="23">
+        <f>SUM(C42:C45)</f>
+        <v>2</v>
+      </c>
+      <c r="L46" s="56"/>
+      <c r="M46" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46" s="24">
+        <f>SUM(N42:N45)</f>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="L42:L46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9359,16 +9954,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="215" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9962,240 +10557,240 @@
     <mergeCell ref="A20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="211" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="207" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="203" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="199" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="195" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="191" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="187" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="183" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="179" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="175" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="171" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="167" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="163" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="159" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 H21">
-    <cfRule type="cellIs" dxfId="155" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="151" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="147" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10495,16 +11090,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="143" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11179,30 +11774,30 @@
     <mergeCell ref="B23:J23"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="139" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="135" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11396,16 +11991,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="131" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11429,7 +12024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12663,450 +13258,450 @@
     <mergeCell ref="A34:L34"/>
   </mergeCells>
   <conditionalFormatting sqref="H35:H1048576">
-    <cfRule type="cellIs" dxfId="127" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="233" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="234" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="235" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="236" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="123" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="149" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="150" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="151" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="152" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="119" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="145" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="146" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="147" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="148" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="115" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="111" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="137" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="138" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="140" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="107" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="103" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="99" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="95" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="91" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="87" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="81" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="82" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="83" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="84" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="79" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="75" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31 H33">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31 H33">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13134,316 +13729,567 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A3:N46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC0C8B8-7956-4122-85A2-1A4F293B4470}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.21875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="4">
-        <f>COUNTIFS(SRS_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
-        <v>14</v>
-      </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="4">
-        <f>COUNTIFS(SRS_Review!F2:F1048576,"Closed")</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="14">
-        <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="15">
-        <f>COUNTIFS(SRS_Review!F2:F1048576,"In Progress")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="14">
-        <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="15">
-        <f>COUNTIFS(SRS_Review!F2:F1048576,"Need Approval")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <f>SUM(C3:C6)</f>
-        <v>14</v>
-      </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="4">
-        <f>SUM(N3:N6)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B23" s="23" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" s="24" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="24">
-        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
-        <v>19</v>
-      </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="24">
-        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Closed")</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N25" s="24">
-        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"In Progress")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="23">
-        <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="24">
-        <f>COUNTIF(Risk_Managment_Plan_Review!F2:F1048576,"Need Approval")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="23">
-        <f>SUM(C23:C26)</f>
-        <v>19</v>
-      </c>
-      <c r="L27" s="56"/>
-      <c r="M27" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="N27" s="24">
-        <f>SUM(N23:N26)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H34" s="25"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B42" s="23" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="23">
-        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
-        <v>0</v>
-      </c>
-      <c r="L42" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="M42" s="24" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="N42" s="24">
-        <f>COUNTIF(Audit_Review!H2:H1048576,"Open")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="23">
-        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
-        <v>2</v>
-      </c>
-      <c r="L43" s="56"/>
-      <c r="M43" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N43" s="24">
-        <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="23">
-        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="56"/>
-      <c r="M44" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="N44" s="24">
-        <f>COUNTIF(Audit_Review!H2:H1048576,"In Progress")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="23">
-        <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="56"/>
-      <c r="M45" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N45" s="24">
-        <f>COUNTIF(Audit_Review!H2:H1048576,"Need Approval")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="23">
-        <f>SUM(C42:C45)</f>
-        <v>2</v>
-      </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="N46" s="24">
-        <f>SUM(N42:N45)</f>
-        <v>36</v>
-      </c>
+    </row>
+    <row r="9" spans="1:10" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="F25" s="58"/>
+    </row>
+    <row r="26" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="F26" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="L23:L27"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="L42:L46"/>
-  </mergeCells>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2E159D18-4CAE-433C-B33C-39F62B59F17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08C787AD-37C4-43F9-BA46-9C66560AA454}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9745F89-9DF0-4011-8F5B-03B751CA6571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="SRS_Review" sheetId="3" r:id="rId6"/>
     <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
     <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
-    <sheet name="TestCase_Part1_Review" sheetId="14" r:id="rId9"/>
+    <sheet name="TestCase_Review" sheetId="14" r:id="rId9"/>
     <sheet name="Progress_Chart" sheetId="4" r:id="rId10"/>
   </sheets>
   <externalReferences>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="344">
   <si>
     <t>Raised By</t>
   </si>
@@ -1069,6 +1067,97 @@
   </si>
   <si>
     <t>F_REVIEW_User_OffersAndPromotions_TC_V1.0_001</t>
+  </si>
+  <si>
+    <t>F_Review_User_Confirm_Order_001</t>
+  </si>
+  <si>
+    <t>HagerHany</t>
+  </si>
+  <si>
+    <t>HagerNasser</t>
+  </si>
+  <si>
+    <t>Missed testcases to 
+check item price</t>
+  </si>
+  <si>
+    <t>F_Review_User_Confirm_Order_002</t>
+  </si>
+  <si>
+    <t>Missed testcases to 
+check Total price</t>
+  </si>
+  <si>
+    <t>F_Review_User_Confirm_Order_003</t>
+  </si>
+  <si>
+    <t>Missed testcases to 
+check discount</t>
+  </si>
+  <si>
+    <t>F_Review_User_Confirm_Order_004</t>
+  </si>
+  <si>
+    <t>Missed testcases to check offers link</t>
+  </si>
+  <si>
+    <t>F_Review_User_MenuItem_001</t>
+  </si>
+  <si>
+    <t>Some Test Cases has incorrect expected results
+TC_F_MenuItem_002
+TC_F_MenuItem_004</t>
+  </si>
+  <si>
+    <t>F_Review_User_MenuItem_002</t>
+  </si>
+  <si>
+    <t>Some Test Cases has no test
+data
+TC_F_MenuItem_001
+TC_F_MenuItem_004
+TC_F_MenuItem_005</t>
+  </si>
+  <si>
+    <t>F_Review_User_MenuItem_003</t>
+  </si>
+  <si>
+    <t>Missed testcases to check menuItem price</t>
+  </si>
+  <si>
+    <t>F_Review_AdminHome__001</t>
+  </si>
+  <si>
+    <t>preconditions are wrong need to be corrected
+TC_F_AdminHome_001</t>
+  </si>
+  <si>
+    <t>F_Review_AdminHome__002</t>
+  </si>
+  <si>
+    <t>Wrong expected results need to be corrected
+TC_F_AdminHome_002</t>
+  </si>
+  <si>
+    <t>F_Review_Registration__001</t>
+  </si>
+  <si>
+    <t>in TC_F_Reg_User_002 the expected Result is incorrect 
+Please Review The SRS</t>
+  </si>
+  <si>
+    <t>F_Review_Registration__002</t>
+  </si>
+  <si>
+    <t>missed test cases to validatethat fullnme can't contain special character</t>
+  </si>
+  <si>
+    <t>F_Review_Registration__003</t>
+  </si>
+  <si>
+    <t>in TC_F_Reg_User_005 the expected Result is incorrect 
+Please Review The SRS</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,6 +1493,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1430,10 +1528,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1441,7 +1536,35 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="248">
+  <dxfs count="252">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -9056,15 +9179,15 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -9268,15 +9391,15 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -9312,44 +9435,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="247" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="243" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="239" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9387,7 +9510,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -9397,7 +9520,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -9409,7 +9532,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -9417,7 +9540,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="56"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -9427,7 +9550,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -9435,7 +9558,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="56"/>
+      <c r="L5" s="59"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -9445,7 +9568,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -9453,7 +9576,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="56"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -9463,7 +9586,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -9471,7 +9594,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="56"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -9481,7 +9604,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="58" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -9491,7 +9614,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="56" t="s">
+      <c r="L23" s="59" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -9503,7 +9626,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
@@ -9511,7 +9634,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
         <v>19</v>
       </c>
-      <c r="L24" s="56"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -9521,7 +9644,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -9529,7 +9652,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="56"/>
+      <c r="L25" s="59"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -9539,7 +9662,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9547,7 +9670,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="56"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -9557,7 +9680,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -9565,7 +9688,7 @@
         <f>SUM(C23:C26)</f>
         <v>19</v>
       </c>
-      <c r="L27" s="56"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -9578,7 +9701,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="58" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -9588,7 +9711,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="56" t="s">
+      <c r="L42" s="59" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -9600,7 +9723,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -9608,7 +9731,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="56"/>
+      <c r="L43" s="59"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
@@ -9618,7 +9741,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -9626,7 +9749,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="56"/>
+      <c r="L44" s="59"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -9636,7 +9759,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -9644,7 +9767,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="56"/>
+      <c r="L45" s="59"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -9654,7 +9777,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -9662,7 +9785,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="56"/>
+      <c r="L46" s="59"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>
@@ -9954,16 +10077,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="235" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10352,16 +10475,16 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -10494,16 +10617,16 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -10557,240 +10680,240 @@
     <mergeCell ref="A20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="231" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="227" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="223" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="219" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="215" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="211" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="207" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="203" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="199" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="195" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="191" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="187" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="183" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="179" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 H21">
-    <cfRule type="cellIs" dxfId="175" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="171" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11090,16 +11213,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="163" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11487,15 +11610,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -11723,15 +11846,15 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
@@ -11774,30 +11897,30 @@
     <mergeCell ref="B23:J23"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="159" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11991,16 +12114,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="151" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12025,7 +12148,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
@@ -12330,18 +12453,18 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -12940,18 +13063,18 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="54"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -13114,18 +13237,18 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -13258,450 +13381,450 @@
     <mergeCell ref="A34:L34"/>
   </mergeCells>
   <conditionalFormatting sqref="H35:H1048576">
-    <cfRule type="cellIs" dxfId="147" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="233" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="234" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="235" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="236" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="143" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="149" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="151" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="152" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="139" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="135" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="141" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="143" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="144" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="131" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="137" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="123" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="131" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="132" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="119" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="117" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="113" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="114" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="111" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="107" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="86" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="87" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="88" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="103" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="82" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="83" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="84" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="99" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="95" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="91" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="87" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="83" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="79" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="71" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31 H33">
-    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:H31 H33">
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="59" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="55" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="51" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="47" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="35" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13730,497 +13853,1240 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC0C8B8-7956-4122-85A2-1A4F293B4470}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:LE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="40.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.21875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="31.21875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="G2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="G3" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>286</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F4" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="G4" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="G5" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>290</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>292</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="G8" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="G9" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>295</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="G10" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="G11" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>299</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="G12" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-    </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>301</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="G14" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>303</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="G15" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>305</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="G16" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:317" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>307</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="G17" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:317" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>309</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="G18" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:317" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>311</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="G19" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:317" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:317" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>313</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="G21" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:317" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>315</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="G22" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:317" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:317" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>317</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F24" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="G24" s="50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="F25" s="58"/>
-    </row>
-    <row r="26" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="F26" s="58"/>
-    </row>
+    <row r="25" spans="1:317" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I26" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I27" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:317" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="48"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="60"/>
+      <c r="AI30" s="60"/>
+      <c r="AJ30" s="60"/>
+      <c r="AK30" s="60"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="60"/>
+      <c r="AQ30" s="60"/>
+      <c r="AR30" s="60"/>
+      <c r="AS30" s="60"/>
+      <c r="AT30" s="60"/>
+      <c r="AU30" s="60"/>
+      <c r="AV30" s="60"/>
+      <c r="AW30" s="60"/>
+      <c r="AX30" s="60"/>
+      <c r="AY30" s="60"/>
+      <c r="AZ30" s="60"/>
+      <c r="BA30" s="60"/>
+      <c r="BB30" s="60"/>
+      <c r="BC30" s="60"/>
+      <c r="BD30" s="60"/>
+      <c r="BE30" s="60"/>
+      <c r="BF30" s="60"/>
+      <c r="BG30" s="60"/>
+      <c r="BH30" s="60"/>
+      <c r="BI30" s="60"/>
+      <c r="BJ30" s="60"/>
+      <c r="BK30" s="60"/>
+      <c r="BL30" s="60"/>
+      <c r="BM30" s="60"/>
+      <c r="BN30" s="60"/>
+      <c r="BO30" s="60"/>
+      <c r="BP30" s="60"/>
+      <c r="BQ30" s="60"/>
+      <c r="BR30" s="60"/>
+      <c r="BS30" s="60"/>
+      <c r="BT30" s="60"/>
+      <c r="BU30" s="60"/>
+      <c r="BV30" s="60"/>
+      <c r="BW30" s="60"/>
+      <c r="BX30" s="60"/>
+      <c r="BY30" s="60"/>
+      <c r="BZ30" s="60"/>
+      <c r="CA30" s="60"/>
+      <c r="CB30" s="60"/>
+      <c r="CC30" s="60"/>
+      <c r="CD30" s="60"/>
+      <c r="CE30" s="60"/>
+      <c r="CF30" s="60"/>
+      <c r="CG30" s="60"/>
+      <c r="CH30" s="60"/>
+      <c r="CI30" s="60"/>
+      <c r="CJ30" s="60"/>
+      <c r="CK30" s="60"/>
+      <c r="CL30" s="60"/>
+      <c r="CM30" s="60"/>
+      <c r="CN30" s="60"/>
+      <c r="CO30" s="60"/>
+      <c r="CP30" s="60"/>
+      <c r="CQ30" s="60"/>
+      <c r="CR30" s="60"/>
+      <c r="CS30" s="60"/>
+      <c r="CT30" s="60"/>
+      <c r="CU30" s="60"/>
+      <c r="CV30" s="60"/>
+      <c r="CW30" s="60"/>
+      <c r="CX30" s="60"/>
+      <c r="CY30" s="60"/>
+      <c r="CZ30" s="60"/>
+      <c r="DA30" s="60"/>
+      <c r="DB30" s="60"/>
+      <c r="DC30" s="60"/>
+      <c r="DD30" s="60"/>
+      <c r="DE30" s="60"/>
+      <c r="DF30" s="60"/>
+      <c r="DG30" s="60"/>
+      <c r="DH30" s="60"/>
+      <c r="DI30" s="60"/>
+      <c r="DJ30" s="60"/>
+      <c r="DK30" s="60"/>
+      <c r="DL30" s="60"/>
+      <c r="DM30" s="60"/>
+      <c r="DN30" s="60"/>
+      <c r="DO30" s="60"/>
+      <c r="DP30" s="60"/>
+      <c r="DQ30" s="60"/>
+      <c r="DR30" s="60"/>
+      <c r="DS30" s="60"/>
+      <c r="DT30" s="60"/>
+      <c r="DU30" s="60"/>
+      <c r="DV30" s="60"/>
+      <c r="DW30" s="60"/>
+      <c r="DX30" s="60"/>
+      <c r="DY30" s="60"/>
+      <c r="DZ30" s="60"/>
+      <c r="EA30" s="60"/>
+      <c r="EB30" s="60"/>
+      <c r="EC30" s="60"/>
+      <c r="ED30" s="60"/>
+      <c r="EE30" s="60"/>
+      <c r="EF30" s="60"/>
+      <c r="EG30" s="60"/>
+      <c r="EH30" s="60"/>
+      <c r="EI30" s="60"/>
+      <c r="EJ30" s="60"/>
+      <c r="EK30" s="60"/>
+      <c r="EL30" s="60"/>
+      <c r="EM30" s="60"/>
+      <c r="EN30" s="60"/>
+      <c r="EO30" s="60"/>
+      <c r="EP30" s="60"/>
+      <c r="EQ30" s="60"/>
+      <c r="ER30" s="60"/>
+      <c r="ES30" s="60"/>
+      <c r="ET30" s="60"/>
+      <c r="EU30" s="60"/>
+      <c r="EV30" s="60"/>
+      <c r="EW30" s="60"/>
+      <c r="EX30" s="60"/>
+      <c r="EY30" s="60"/>
+      <c r="EZ30" s="60"/>
+      <c r="FA30" s="60"/>
+      <c r="FB30" s="60"/>
+      <c r="FC30" s="60"/>
+      <c r="FD30" s="60"/>
+      <c r="FE30" s="60"/>
+      <c r="FF30" s="60"/>
+      <c r="FG30" s="60"/>
+      <c r="FH30" s="60"/>
+      <c r="FI30" s="60"/>
+      <c r="FJ30" s="60"/>
+      <c r="FK30" s="60"/>
+      <c r="FL30" s="60"/>
+      <c r="FM30" s="60"/>
+      <c r="FN30" s="60"/>
+      <c r="FO30" s="60"/>
+      <c r="FP30" s="60"/>
+      <c r="FQ30" s="60"/>
+      <c r="FR30" s="60"/>
+      <c r="FS30" s="60"/>
+      <c r="FT30" s="60"/>
+      <c r="FU30" s="60"/>
+      <c r="FV30" s="60"/>
+      <c r="FW30" s="60"/>
+      <c r="FX30" s="60"/>
+      <c r="FY30" s="60"/>
+      <c r="FZ30" s="60"/>
+      <c r="GA30" s="60"/>
+      <c r="GB30" s="60"/>
+      <c r="GC30" s="60"/>
+      <c r="GD30" s="60"/>
+      <c r="GE30" s="60"/>
+      <c r="GF30" s="60"/>
+      <c r="GG30" s="60"/>
+      <c r="GH30" s="60"/>
+      <c r="GI30" s="60"/>
+      <c r="GJ30" s="60"/>
+      <c r="GK30" s="60"/>
+      <c r="GL30" s="60"/>
+      <c r="GM30" s="60"/>
+      <c r="GN30" s="60"/>
+      <c r="GO30" s="60"/>
+      <c r="GP30" s="60"/>
+      <c r="GQ30" s="60"/>
+      <c r="GR30" s="60"/>
+      <c r="GS30" s="60"/>
+      <c r="GT30" s="60"/>
+      <c r="GU30" s="60"/>
+      <c r="GV30" s="60"/>
+      <c r="GW30" s="60"/>
+      <c r="GX30" s="60"/>
+      <c r="GY30" s="60"/>
+      <c r="GZ30" s="60"/>
+      <c r="HA30" s="60"/>
+      <c r="HB30" s="60"/>
+      <c r="HC30" s="60"/>
+      <c r="HD30" s="60"/>
+      <c r="HE30" s="60"/>
+      <c r="HF30" s="60"/>
+      <c r="HG30" s="60"/>
+      <c r="HH30" s="60"/>
+      <c r="HI30" s="60"/>
+      <c r="HJ30" s="60"/>
+      <c r="HK30" s="60"/>
+      <c r="HL30" s="60"/>
+      <c r="HM30" s="60"/>
+      <c r="HN30" s="60"/>
+      <c r="HO30" s="60"/>
+      <c r="HP30" s="60"/>
+      <c r="HQ30" s="60"/>
+      <c r="HR30" s="60"/>
+      <c r="HS30" s="60"/>
+      <c r="HT30" s="60"/>
+      <c r="HU30" s="60"/>
+      <c r="HV30" s="60"/>
+      <c r="HW30" s="60"/>
+      <c r="HX30" s="60"/>
+      <c r="HY30" s="60"/>
+      <c r="HZ30" s="60"/>
+      <c r="IA30" s="60"/>
+      <c r="IB30" s="60"/>
+      <c r="IC30" s="60"/>
+      <c r="ID30" s="60"/>
+      <c r="IE30" s="60"/>
+      <c r="IF30" s="60"/>
+      <c r="IG30" s="60"/>
+      <c r="IH30" s="60"/>
+      <c r="II30" s="60"/>
+      <c r="IJ30" s="60"/>
+      <c r="IK30" s="60"/>
+      <c r="IL30" s="60"/>
+      <c r="IM30" s="60"/>
+      <c r="IN30" s="60"/>
+      <c r="IO30" s="60"/>
+      <c r="IP30" s="60"/>
+      <c r="IQ30" s="60"/>
+      <c r="IR30" s="60"/>
+      <c r="IS30" s="60"/>
+      <c r="IT30" s="60"/>
+      <c r="IU30" s="60"/>
+      <c r="IV30" s="60"/>
+      <c r="IW30" s="60"/>
+      <c r="IX30" s="60"/>
+      <c r="IY30" s="60"/>
+      <c r="IZ30" s="60"/>
+      <c r="JA30" s="60"/>
+      <c r="JB30" s="60"/>
+      <c r="JC30" s="60"/>
+      <c r="JD30" s="60"/>
+      <c r="JE30" s="60"/>
+      <c r="JF30" s="60"/>
+      <c r="JG30" s="60"/>
+      <c r="JH30" s="60"/>
+      <c r="JI30" s="60"/>
+      <c r="JJ30" s="60"/>
+      <c r="JK30" s="60"/>
+      <c r="JL30" s="60"/>
+      <c r="JM30" s="60"/>
+      <c r="JN30" s="60"/>
+      <c r="JO30" s="60"/>
+      <c r="JP30" s="60"/>
+      <c r="JQ30" s="60"/>
+      <c r="JR30" s="60"/>
+      <c r="JS30" s="60"/>
+      <c r="JT30" s="60"/>
+      <c r="JU30" s="60"/>
+      <c r="JV30" s="60"/>
+      <c r="JW30" s="60"/>
+      <c r="JX30" s="60"/>
+      <c r="JY30" s="60"/>
+      <c r="JZ30" s="60"/>
+      <c r="KA30" s="60"/>
+      <c r="KB30" s="60"/>
+      <c r="KC30" s="60"/>
+      <c r="KD30" s="60"/>
+      <c r="KE30" s="60"/>
+      <c r="KF30" s="60"/>
+      <c r="KG30" s="60"/>
+      <c r="KH30" s="60"/>
+      <c r="KI30" s="60"/>
+      <c r="KJ30" s="60"/>
+      <c r="KK30" s="60"/>
+      <c r="KL30" s="60"/>
+      <c r="KM30" s="60"/>
+      <c r="KN30" s="60"/>
+      <c r="KO30" s="60"/>
+      <c r="KP30" s="60"/>
+      <c r="KQ30" s="60"/>
+      <c r="KR30" s="60"/>
+      <c r="KS30" s="60"/>
+      <c r="KT30" s="60"/>
+      <c r="KU30" s="60"/>
+      <c r="KV30" s="60"/>
+      <c r="KW30" s="60"/>
+      <c r="KX30" s="60"/>
+      <c r="KY30" s="60"/>
+      <c r="KZ30" s="60"/>
+      <c r="LA30" s="60"/>
+      <c r="LB30" s="60"/>
+      <c r="LC30" s="60"/>
+      <c r="LD30" s="60"/>
+      <c r="LE30" s="49"/>
+    </row>
+    <row r="31" spans="1:317" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:317" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I32" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I33" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:9" customFormat="1" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I35" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E36" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I36" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E38" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I38" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I39" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E40" s="47">
+        <v>44707</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I40" s="47">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="F1">
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
     <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -14234,7 +15100,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="G13">
     <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -14248,7 +15114,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -14262,7 +15128,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
+  <conditionalFormatting sqref="G23">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -14276,7 +15142,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
+  <conditionalFormatting sqref="G25">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9745F89-9DF0-4011-8F5B-03B751CA6571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5869DE1-F704-4E44-8200-08025C5B45F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
     <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
     <sheet name="TestCase_Review" sheetId="14" r:id="rId9"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId10"/>
+    <sheet name="BugReport_Review" sheetId="15" r:id="rId10"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="349">
   <si>
     <t>Raised By</t>
   </si>
@@ -1159,6 +1160,21 @@
     <t>in TC_F_Reg_User_005 the expected Result is incorrect 
 Please Review The SRS</t>
   </si>
+  <si>
+    <t>F_REVIEW_BugReport_V1.0_001</t>
+  </si>
+  <si>
+    <t>Hager Nassar</t>
+  </si>
+  <si>
+    <t>27/5/2022</t>
+  </si>
+  <si>
+    <t>Please add a coloumn with the environment specifications.</t>
+  </si>
+  <si>
+    <t>In test steps, please remove the steps that are already a precondition.</t>
+  </si>
 </sst>
 </file>
 
@@ -1167,7 +1183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,6 +1222,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1361,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1501,6 +1524,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1528,7 +1554,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9179,15 +9223,15 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -9391,15 +9435,15 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="53"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -9494,6 +9538,136 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB82819F-4AB5-40E8-B172-72080275FDD0}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="58.21875" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="59.88671875" customWidth="1"/>
+    <col min="5" max="5" width="60.44140625" customWidth="1"/>
+    <col min="6" max="6" width="68.33203125" customWidth="1"/>
+    <col min="7" max="7" width="66.77734375" customWidth="1"/>
+    <col min="8" max="8" width="60.88671875" customWidth="1"/>
+    <col min="9" max="9" width="46.88671875" customWidth="1"/>
+    <col min="10" max="10" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="62"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A3:N46"/>
   <sheetViews>
@@ -9510,7 +9684,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -9520,7 +9694,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="59" t="s">
+      <c r="L3" s="60" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -9532,7 +9706,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -9540,7 +9714,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -9550,7 +9724,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -9558,7 +9732,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="59"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -9568,7 +9742,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -9576,7 +9750,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="59"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -9586,7 +9760,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -9594,7 +9768,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="59"/>
+      <c r="L7" s="60"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -9604,7 +9778,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="59" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -9614,7 +9788,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="59" t="s">
+      <c r="L23" s="60" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -9626,7 +9800,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
@@ -9634,7 +9808,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
         <v>19</v>
       </c>
-      <c r="L24" s="59"/>
+      <c r="L24" s="60"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -9644,7 +9818,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -9652,7 +9826,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="59"/>
+      <c r="L25" s="60"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -9662,7 +9836,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9670,7 +9844,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="59"/>
+      <c r="L26" s="60"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -9680,7 +9854,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -9688,7 +9862,7 @@
         <f>SUM(C23:C26)</f>
         <v>19</v>
       </c>
-      <c r="L27" s="59"/>
+      <c r="L27" s="60"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -9701,7 +9875,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="59" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -9711,7 +9885,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="59" t="s">
+      <c r="L42" s="60" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -9723,7 +9897,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
+      <c r="A43" s="59"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -9731,7 +9905,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="59"/>
+      <c r="L43" s="60"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
@@ -9741,7 +9915,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
+      <c r="A44" s="59"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -9749,7 +9923,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="59"/>
+      <c r="L44" s="60"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -9759,7 +9933,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -9767,7 +9941,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="59"/>
+      <c r="L45" s="60"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -9777,7 +9951,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
+      <c r="A46" s="59"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -9785,7 +9959,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="59"/>
+      <c r="L46" s="60"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>
@@ -10475,16 +10649,16 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -10617,16 +10791,16 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -11610,15 +11784,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="53"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -11846,15 +12020,15 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="53"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
@@ -12453,18 +12627,18 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -13063,18 +13237,18 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="58"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -13237,18 +13411,18 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="57"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="58"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -13855,7 +14029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC0C8B8-7956-4122-85A2-1A4F293B4470}">
   <dimension ref="A1:LE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -14530,310 +14704,310 @@
     </row>
     <row r="30" spans="1:317" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K30" s="48"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="60"/>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
-      <c r="AO30" s="60"/>
-      <c r="AP30" s="60"/>
-      <c r="AQ30" s="60"/>
-      <c r="AR30" s="60"/>
-      <c r="AS30" s="60"/>
-      <c r="AT30" s="60"/>
-      <c r="AU30" s="60"/>
-      <c r="AV30" s="60"/>
-      <c r="AW30" s="60"/>
-      <c r="AX30" s="60"/>
-      <c r="AY30" s="60"/>
-      <c r="AZ30" s="60"/>
-      <c r="BA30" s="60"/>
-      <c r="BB30" s="60"/>
-      <c r="BC30" s="60"/>
-      <c r="BD30" s="60"/>
-      <c r="BE30" s="60"/>
-      <c r="BF30" s="60"/>
-      <c r="BG30" s="60"/>
-      <c r="BH30" s="60"/>
-      <c r="BI30" s="60"/>
-      <c r="BJ30" s="60"/>
-      <c r="BK30" s="60"/>
-      <c r="BL30" s="60"/>
-      <c r="BM30" s="60"/>
-      <c r="BN30" s="60"/>
-      <c r="BO30" s="60"/>
-      <c r="BP30" s="60"/>
-      <c r="BQ30" s="60"/>
-      <c r="BR30" s="60"/>
-      <c r="BS30" s="60"/>
-      <c r="BT30" s="60"/>
-      <c r="BU30" s="60"/>
-      <c r="BV30" s="60"/>
-      <c r="BW30" s="60"/>
-      <c r="BX30" s="60"/>
-      <c r="BY30" s="60"/>
-      <c r="BZ30" s="60"/>
-      <c r="CA30" s="60"/>
-      <c r="CB30" s="60"/>
-      <c r="CC30" s="60"/>
-      <c r="CD30" s="60"/>
-      <c r="CE30" s="60"/>
-      <c r="CF30" s="60"/>
-      <c r="CG30" s="60"/>
-      <c r="CH30" s="60"/>
-      <c r="CI30" s="60"/>
-      <c r="CJ30" s="60"/>
-      <c r="CK30" s="60"/>
-      <c r="CL30" s="60"/>
-      <c r="CM30" s="60"/>
-      <c r="CN30" s="60"/>
-      <c r="CO30" s="60"/>
-      <c r="CP30" s="60"/>
-      <c r="CQ30" s="60"/>
-      <c r="CR30" s="60"/>
-      <c r="CS30" s="60"/>
-      <c r="CT30" s="60"/>
-      <c r="CU30" s="60"/>
-      <c r="CV30" s="60"/>
-      <c r="CW30" s="60"/>
-      <c r="CX30" s="60"/>
-      <c r="CY30" s="60"/>
-      <c r="CZ30" s="60"/>
-      <c r="DA30" s="60"/>
-      <c r="DB30" s="60"/>
-      <c r="DC30" s="60"/>
-      <c r="DD30" s="60"/>
-      <c r="DE30" s="60"/>
-      <c r="DF30" s="60"/>
-      <c r="DG30" s="60"/>
-      <c r="DH30" s="60"/>
-      <c r="DI30" s="60"/>
-      <c r="DJ30" s="60"/>
-      <c r="DK30" s="60"/>
-      <c r="DL30" s="60"/>
-      <c r="DM30" s="60"/>
-      <c r="DN30" s="60"/>
-      <c r="DO30" s="60"/>
-      <c r="DP30" s="60"/>
-      <c r="DQ30" s="60"/>
-      <c r="DR30" s="60"/>
-      <c r="DS30" s="60"/>
-      <c r="DT30" s="60"/>
-      <c r="DU30" s="60"/>
-      <c r="DV30" s="60"/>
-      <c r="DW30" s="60"/>
-      <c r="DX30" s="60"/>
-      <c r="DY30" s="60"/>
-      <c r="DZ30" s="60"/>
-      <c r="EA30" s="60"/>
-      <c r="EB30" s="60"/>
-      <c r="EC30" s="60"/>
-      <c r="ED30" s="60"/>
-      <c r="EE30" s="60"/>
-      <c r="EF30" s="60"/>
-      <c r="EG30" s="60"/>
-      <c r="EH30" s="60"/>
-      <c r="EI30" s="60"/>
-      <c r="EJ30" s="60"/>
-      <c r="EK30" s="60"/>
-      <c r="EL30" s="60"/>
-      <c r="EM30" s="60"/>
-      <c r="EN30" s="60"/>
-      <c r="EO30" s="60"/>
-      <c r="EP30" s="60"/>
-      <c r="EQ30" s="60"/>
-      <c r="ER30" s="60"/>
-      <c r="ES30" s="60"/>
-      <c r="ET30" s="60"/>
-      <c r="EU30" s="60"/>
-      <c r="EV30" s="60"/>
-      <c r="EW30" s="60"/>
-      <c r="EX30" s="60"/>
-      <c r="EY30" s="60"/>
-      <c r="EZ30" s="60"/>
-      <c r="FA30" s="60"/>
-      <c r="FB30" s="60"/>
-      <c r="FC30" s="60"/>
-      <c r="FD30" s="60"/>
-      <c r="FE30" s="60"/>
-      <c r="FF30" s="60"/>
-      <c r="FG30" s="60"/>
-      <c r="FH30" s="60"/>
-      <c r="FI30" s="60"/>
-      <c r="FJ30" s="60"/>
-      <c r="FK30" s="60"/>
-      <c r="FL30" s="60"/>
-      <c r="FM30" s="60"/>
-      <c r="FN30" s="60"/>
-      <c r="FO30" s="60"/>
-      <c r="FP30" s="60"/>
-      <c r="FQ30" s="60"/>
-      <c r="FR30" s="60"/>
-      <c r="FS30" s="60"/>
-      <c r="FT30" s="60"/>
-      <c r="FU30" s="60"/>
-      <c r="FV30" s="60"/>
-      <c r="FW30" s="60"/>
-      <c r="FX30" s="60"/>
-      <c r="FY30" s="60"/>
-      <c r="FZ30" s="60"/>
-      <c r="GA30" s="60"/>
-      <c r="GB30" s="60"/>
-      <c r="GC30" s="60"/>
-      <c r="GD30" s="60"/>
-      <c r="GE30" s="60"/>
-      <c r="GF30" s="60"/>
-      <c r="GG30" s="60"/>
-      <c r="GH30" s="60"/>
-      <c r="GI30" s="60"/>
-      <c r="GJ30" s="60"/>
-      <c r="GK30" s="60"/>
-      <c r="GL30" s="60"/>
-      <c r="GM30" s="60"/>
-      <c r="GN30" s="60"/>
-      <c r="GO30" s="60"/>
-      <c r="GP30" s="60"/>
-      <c r="GQ30" s="60"/>
-      <c r="GR30" s="60"/>
-      <c r="GS30" s="60"/>
-      <c r="GT30" s="60"/>
-      <c r="GU30" s="60"/>
-      <c r="GV30" s="60"/>
-      <c r="GW30" s="60"/>
-      <c r="GX30" s="60"/>
-      <c r="GY30" s="60"/>
-      <c r="GZ30" s="60"/>
-      <c r="HA30" s="60"/>
-      <c r="HB30" s="60"/>
-      <c r="HC30" s="60"/>
-      <c r="HD30" s="60"/>
-      <c r="HE30" s="60"/>
-      <c r="HF30" s="60"/>
-      <c r="HG30" s="60"/>
-      <c r="HH30" s="60"/>
-      <c r="HI30" s="60"/>
-      <c r="HJ30" s="60"/>
-      <c r="HK30" s="60"/>
-      <c r="HL30" s="60"/>
-      <c r="HM30" s="60"/>
-      <c r="HN30" s="60"/>
-      <c r="HO30" s="60"/>
-      <c r="HP30" s="60"/>
-      <c r="HQ30" s="60"/>
-      <c r="HR30" s="60"/>
-      <c r="HS30" s="60"/>
-      <c r="HT30" s="60"/>
-      <c r="HU30" s="60"/>
-      <c r="HV30" s="60"/>
-      <c r="HW30" s="60"/>
-      <c r="HX30" s="60"/>
-      <c r="HY30" s="60"/>
-      <c r="HZ30" s="60"/>
-      <c r="IA30" s="60"/>
-      <c r="IB30" s="60"/>
-      <c r="IC30" s="60"/>
-      <c r="ID30" s="60"/>
-      <c r="IE30" s="60"/>
-      <c r="IF30" s="60"/>
-      <c r="IG30" s="60"/>
-      <c r="IH30" s="60"/>
-      <c r="II30" s="60"/>
-      <c r="IJ30" s="60"/>
-      <c r="IK30" s="60"/>
-      <c r="IL30" s="60"/>
-      <c r="IM30" s="60"/>
-      <c r="IN30" s="60"/>
-      <c r="IO30" s="60"/>
-      <c r="IP30" s="60"/>
-      <c r="IQ30" s="60"/>
-      <c r="IR30" s="60"/>
-      <c r="IS30" s="60"/>
-      <c r="IT30" s="60"/>
-      <c r="IU30" s="60"/>
-      <c r="IV30" s="60"/>
-      <c r="IW30" s="60"/>
-      <c r="IX30" s="60"/>
-      <c r="IY30" s="60"/>
-      <c r="IZ30" s="60"/>
-      <c r="JA30" s="60"/>
-      <c r="JB30" s="60"/>
-      <c r="JC30" s="60"/>
-      <c r="JD30" s="60"/>
-      <c r="JE30" s="60"/>
-      <c r="JF30" s="60"/>
-      <c r="JG30" s="60"/>
-      <c r="JH30" s="60"/>
-      <c r="JI30" s="60"/>
-      <c r="JJ30" s="60"/>
-      <c r="JK30" s="60"/>
-      <c r="JL30" s="60"/>
-      <c r="JM30" s="60"/>
-      <c r="JN30" s="60"/>
-      <c r="JO30" s="60"/>
-      <c r="JP30" s="60"/>
-      <c r="JQ30" s="60"/>
-      <c r="JR30" s="60"/>
-      <c r="JS30" s="60"/>
-      <c r="JT30" s="60"/>
-      <c r="JU30" s="60"/>
-      <c r="JV30" s="60"/>
-      <c r="JW30" s="60"/>
-      <c r="JX30" s="60"/>
-      <c r="JY30" s="60"/>
-      <c r="JZ30" s="60"/>
-      <c r="KA30" s="60"/>
-      <c r="KB30" s="60"/>
-      <c r="KC30" s="60"/>
-      <c r="KD30" s="60"/>
-      <c r="KE30" s="60"/>
-      <c r="KF30" s="60"/>
-      <c r="KG30" s="60"/>
-      <c r="KH30" s="60"/>
-      <c r="KI30" s="60"/>
-      <c r="KJ30" s="60"/>
-      <c r="KK30" s="60"/>
-      <c r="KL30" s="60"/>
-      <c r="KM30" s="60"/>
-      <c r="KN30" s="60"/>
-      <c r="KO30" s="60"/>
-      <c r="KP30" s="60"/>
-      <c r="KQ30" s="60"/>
-      <c r="KR30" s="60"/>
-      <c r="KS30" s="60"/>
-      <c r="KT30" s="60"/>
-      <c r="KU30" s="60"/>
-      <c r="KV30" s="60"/>
-      <c r="KW30" s="60"/>
-      <c r="KX30" s="60"/>
-      <c r="KY30" s="60"/>
-      <c r="KZ30" s="60"/>
-      <c r="LA30" s="60"/>
-      <c r="LB30" s="60"/>
-      <c r="LC30" s="60"/>
-      <c r="LD30" s="60"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="51"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="51"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="51"/>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="51"/>
+      <c r="AY30" s="51"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="51"/>
+      <c r="BB30" s="51"/>
+      <c r="BC30" s="51"/>
+      <c r="BD30" s="51"/>
+      <c r="BE30" s="51"/>
+      <c r="BF30" s="51"/>
+      <c r="BG30" s="51"/>
+      <c r="BH30" s="51"/>
+      <c r="BI30" s="51"/>
+      <c r="BJ30" s="51"/>
+      <c r="BK30" s="51"/>
+      <c r="BL30" s="51"/>
+      <c r="BM30" s="51"/>
+      <c r="BN30" s="51"/>
+      <c r="BO30" s="51"/>
+      <c r="BP30" s="51"/>
+      <c r="BQ30" s="51"/>
+      <c r="BR30" s="51"/>
+      <c r="BS30" s="51"/>
+      <c r="BT30" s="51"/>
+      <c r="BU30" s="51"/>
+      <c r="BV30" s="51"/>
+      <c r="BW30" s="51"/>
+      <c r="BX30" s="51"/>
+      <c r="BY30" s="51"/>
+      <c r="BZ30" s="51"/>
+      <c r="CA30" s="51"/>
+      <c r="CB30" s="51"/>
+      <c r="CC30" s="51"/>
+      <c r="CD30" s="51"/>
+      <c r="CE30" s="51"/>
+      <c r="CF30" s="51"/>
+      <c r="CG30" s="51"/>
+      <c r="CH30" s="51"/>
+      <c r="CI30" s="51"/>
+      <c r="CJ30" s="51"/>
+      <c r="CK30" s="51"/>
+      <c r="CL30" s="51"/>
+      <c r="CM30" s="51"/>
+      <c r="CN30" s="51"/>
+      <c r="CO30" s="51"/>
+      <c r="CP30" s="51"/>
+      <c r="CQ30" s="51"/>
+      <c r="CR30" s="51"/>
+      <c r="CS30" s="51"/>
+      <c r="CT30" s="51"/>
+      <c r="CU30" s="51"/>
+      <c r="CV30" s="51"/>
+      <c r="CW30" s="51"/>
+      <c r="CX30" s="51"/>
+      <c r="CY30" s="51"/>
+      <c r="CZ30" s="51"/>
+      <c r="DA30" s="51"/>
+      <c r="DB30" s="51"/>
+      <c r="DC30" s="51"/>
+      <c r="DD30" s="51"/>
+      <c r="DE30" s="51"/>
+      <c r="DF30" s="51"/>
+      <c r="DG30" s="51"/>
+      <c r="DH30" s="51"/>
+      <c r="DI30" s="51"/>
+      <c r="DJ30" s="51"/>
+      <c r="DK30" s="51"/>
+      <c r="DL30" s="51"/>
+      <c r="DM30" s="51"/>
+      <c r="DN30" s="51"/>
+      <c r="DO30" s="51"/>
+      <c r="DP30" s="51"/>
+      <c r="DQ30" s="51"/>
+      <c r="DR30" s="51"/>
+      <c r="DS30" s="51"/>
+      <c r="DT30" s="51"/>
+      <c r="DU30" s="51"/>
+      <c r="DV30" s="51"/>
+      <c r="DW30" s="51"/>
+      <c r="DX30" s="51"/>
+      <c r="DY30" s="51"/>
+      <c r="DZ30" s="51"/>
+      <c r="EA30" s="51"/>
+      <c r="EB30" s="51"/>
+      <c r="EC30" s="51"/>
+      <c r="ED30" s="51"/>
+      <c r="EE30" s="51"/>
+      <c r="EF30" s="51"/>
+      <c r="EG30" s="51"/>
+      <c r="EH30" s="51"/>
+      <c r="EI30" s="51"/>
+      <c r="EJ30" s="51"/>
+      <c r="EK30" s="51"/>
+      <c r="EL30" s="51"/>
+      <c r="EM30" s="51"/>
+      <c r="EN30" s="51"/>
+      <c r="EO30" s="51"/>
+      <c r="EP30" s="51"/>
+      <c r="EQ30" s="51"/>
+      <c r="ER30" s="51"/>
+      <c r="ES30" s="51"/>
+      <c r="ET30" s="51"/>
+      <c r="EU30" s="51"/>
+      <c r="EV30" s="51"/>
+      <c r="EW30" s="51"/>
+      <c r="EX30" s="51"/>
+      <c r="EY30" s="51"/>
+      <c r="EZ30" s="51"/>
+      <c r="FA30" s="51"/>
+      <c r="FB30" s="51"/>
+      <c r="FC30" s="51"/>
+      <c r="FD30" s="51"/>
+      <c r="FE30" s="51"/>
+      <c r="FF30" s="51"/>
+      <c r="FG30" s="51"/>
+      <c r="FH30" s="51"/>
+      <c r="FI30" s="51"/>
+      <c r="FJ30" s="51"/>
+      <c r="FK30" s="51"/>
+      <c r="FL30" s="51"/>
+      <c r="FM30" s="51"/>
+      <c r="FN30" s="51"/>
+      <c r="FO30" s="51"/>
+      <c r="FP30" s="51"/>
+      <c r="FQ30" s="51"/>
+      <c r="FR30" s="51"/>
+      <c r="FS30" s="51"/>
+      <c r="FT30" s="51"/>
+      <c r="FU30" s="51"/>
+      <c r="FV30" s="51"/>
+      <c r="FW30" s="51"/>
+      <c r="FX30" s="51"/>
+      <c r="FY30" s="51"/>
+      <c r="FZ30" s="51"/>
+      <c r="GA30" s="51"/>
+      <c r="GB30" s="51"/>
+      <c r="GC30" s="51"/>
+      <c r="GD30" s="51"/>
+      <c r="GE30" s="51"/>
+      <c r="GF30" s="51"/>
+      <c r="GG30" s="51"/>
+      <c r="GH30" s="51"/>
+      <c r="GI30" s="51"/>
+      <c r="GJ30" s="51"/>
+      <c r="GK30" s="51"/>
+      <c r="GL30" s="51"/>
+      <c r="GM30" s="51"/>
+      <c r="GN30" s="51"/>
+      <c r="GO30" s="51"/>
+      <c r="GP30" s="51"/>
+      <c r="GQ30" s="51"/>
+      <c r="GR30" s="51"/>
+      <c r="GS30" s="51"/>
+      <c r="GT30" s="51"/>
+      <c r="GU30" s="51"/>
+      <c r="GV30" s="51"/>
+      <c r="GW30" s="51"/>
+      <c r="GX30" s="51"/>
+      <c r="GY30" s="51"/>
+      <c r="GZ30" s="51"/>
+      <c r="HA30" s="51"/>
+      <c r="HB30" s="51"/>
+      <c r="HC30" s="51"/>
+      <c r="HD30" s="51"/>
+      <c r="HE30" s="51"/>
+      <c r="HF30" s="51"/>
+      <c r="HG30" s="51"/>
+      <c r="HH30" s="51"/>
+      <c r="HI30" s="51"/>
+      <c r="HJ30" s="51"/>
+      <c r="HK30" s="51"/>
+      <c r="HL30" s="51"/>
+      <c r="HM30" s="51"/>
+      <c r="HN30" s="51"/>
+      <c r="HO30" s="51"/>
+      <c r="HP30" s="51"/>
+      <c r="HQ30" s="51"/>
+      <c r="HR30" s="51"/>
+      <c r="HS30" s="51"/>
+      <c r="HT30" s="51"/>
+      <c r="HU30" s="51"/>
+      <c r="HV30" s="51"/>
+      <c r="HW30" s="51"/>
+      <c r="HX30" s="51"/>
+      <c r="HY30" s="51"/>
+      <c r="HZ30" s="51"/>
+      <c r="IA30" s="51"/>
+      <c r="IB30" s="51"/>
+      <c r="IC30" s="51"/>
+      <c r="ID30" s="51"/>
+      <c r="IE30" s="51"/>
+      <c r="IF30" s="51"/>
+      <c r="IG30" s="51"/>
+      <c r="IH30" s="51"/>
+      <c r="II30" s="51"/>
+      <c r="IJ30" s="51"/>
+      <c r="IK30" s="51"/>
+      <c r="IL30" s="51"/>
+      <c r="IM30" s="51"/>
+      <c r="IN30" s="51"/>
+      <c r="IO30" s="51"/>
+      <c r="IP30" s="51"/>
+      <c r="IQ30" s="51"/>
+      <c r="IR30" s="51"/>
+      <c r="IS30" s="51"/>
+      <c r="IT30" s="51"/>
+      <c r="IU30" s="51"/>
+      <c r="IV30" s="51"/>
+      <c r="IW30" s="51"/>
+      <c r="IX30" s="51"/>
+      <c r="IY30" s="51"/>
+      <c r="IZ30" s="51"/>
+      <c r="JA30" s="51"/>
+      <c r="JB30" s="51"/>
+      <c r="JC30" s="51"/>
+      <c r="JD30" s="51"/>
+      <c r="JE30" s="51"/>
+      <c r="JF30" s="51"/>
+      <c r="JG30" s="51"/>
+      <c r="JH30" s="51"/>
+      <c r="JI30" s="51"/>
+      <c r="JJ30" s="51"/>
+      <c r="JK30" s="51"/>
+      <c r="JL30" s="51"/>
+      <c r="JM30" s="51"/>
+      <c r="JN30" s="51"/>
+      <c r="JO30" s="51"/>
+      <c r="JP30" s="51"/>
+      <c r="JQ30" s="51"/>
+      <c r="JR30" s="51"/>
+      <c r="JS30" s="51"/>
+      <c r="JT30" s="51"/>
+      <c r="JU30" s="51"/>
+      <c r="JV30" s="51"/>
+      <c r="JW30" s="51"/>
+      <c r="JX30" s="51"/>
+      <c r="JY30" s="51"/>
+      <c r="JZ30" s="51"/>
+      <c r="KA30" s="51"/>
+      <c r="KB30" s="51"/>
+      <c r="KC30" s="51"/>
+      <c r="KD30" s="51"/>
+      <c r="KE30" s="51"/>
+      <c r="KF30" s="51"/>
+      <c r="KG30" s="51"/>
+      <c r="KH30" s="51"/>
+      <c r="KI30" s="51"/>
+      <c r="KJ30" s="51"/>
+      <c r="KK30" s="51"/>
+      <c r="KL30" s="51"/>
+      <c r="KM30" s="51"/>
+      <c r="KN30" s="51"/>
+      <c r="KO30" s="51"/>
+      <c r="KP30" s="51"/>
+      <c r="KQ30" s="51"/>
+      <c r="KR30" s="51"/>
+      <c r="KS30" s="51"/>
+      <c r="KT30" s="51"/>
+      <c r="KU30" s="51"/>
+      <c r="KV30" s="51"/>
+      <c r="KW30" s="51"/>
+      <c r="KX30" s="51"/>
+      <c r="KY30" s="51"/>
+      <c r="KZ30" s="51"/>
+      <c r="LA30" s="51"/>
+      <c r="LB30" s="51"/>
+      <c r="LC30" s="51"/>
+      <c r="LD30" s="51"/>
       <c r="LE30" s="49"/>
     </row>
     <row r="31" spans="1:317" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5869DE1-F704-4E44-8200-08025C5B45F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28354B4D-0CE4-4F98-8A91-0102B1593E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -1527,6 +1527,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,27 +1573,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6143,10 +6143,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -9223,15 +9223,15 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -9435,15 +9435,15 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -9541,7 +9541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB82819F-4AB5-40E8-B172-72080275FDD0}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -9559,108 +9559,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="54" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="62"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9684,7 +9684,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="66" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -9694,7 +9694,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="67" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -9706,7 +9706,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -9714,7 +9714,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="60"/>
+      <c r="L4" s="67"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -9724,7 +9724,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -9732,7 +9732,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="60"/>
+      <c r="L5" s="67"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -9742,7 +9742,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -9750,7 +9750,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="60"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -9760,7 +9760,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -9768,7 +9768,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="60"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -9778,7 +9778,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="66" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -9788,7 +9788,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="60" t="s">
+      <c r="L23" s="67" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -9800,7 +9800,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
@@ -9808,7 +9808,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
         <v>19</v>
       </c>
-      <c r="L24" s="60"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -9818,7 +9818,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -9826,7 +9826,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="60"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -9836,7 +9836,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9844,7 +9844,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="60"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -9854,7 +9854,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -9862,7 +9862,7 @@
         <f>SUM(C23:C26)</f>
         <v>19</v>
       </c>
-      <c r="L27" s="60"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -9875,7 +9875,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="66" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -9885,7 +9885,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="60" t="s">
+      <c r="L42" s="67" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -9893,11 +9893,11 @@
       </c>
       <c r="N42" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Open")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="59"/>
+      <c r="A43" s="66"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -9905,17 +9905,17 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="60"/>
+      <c r="L43" s="67"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
       <c r="N43" s="24">
         <f>COUNTIF(Audit_Review!H2:H1048576,"Closed")</f>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="59"/>
+      <c r="A44" s="66"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -9923,7 +9923,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="60"/>
+      <c r="L44" s="67"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -9933,7 +9933,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="59"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -9941,7 +9941,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="60"/>
+      <c r="L45" s="67"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -9951,7 +9951,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="59"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -9959,7 +9959,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="60"/>
+      <c r="L46" s="67"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>
@@ -10649,16 +10649,16 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -10791,16 +10791,16 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -11784,15 +11784,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -12020,15 +12020,15 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
@@ -12321,11 +12321,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12627,18 +12627,18 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="65"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -13237,18 +13237,18 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -13411,18 +13411,18 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="58"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -13467,7 +13467,7 @@
         <v>268</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -13490,7 +13490,7 @@
         <v>269</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -13513,7 +13513,7 @@
         <v>271</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -13536,7 +13536,7 @@
         <v>274</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -13544,7 +13544,7 @@
         <v>275</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Monitor and Control/F_Review.xlsx
+++ b/Monitor and Control/F_Review.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28354B4D-0CE4-4F98-8A91-0102B1593E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="PMP_Review" sheetId="1" r:id="rId1"/>
@@ -17,17 +16,16 @@
     <sheet name="Sequence_Diagrams_Review" sheetId="10" r:id="rId7"/>
     <sheet name="Audit_Review" sheetId="11" r:id="rId8"/>
     <sheet name="TestCase_Review" sheetId="14" r:id="rId9"/>
-    <sheet name="BugReport_Review" sheetId="15" r:id="rId10"/>
-    <sheet name="Progress_Chart" sheetId="4" r:id="rId11"/>
+    <sheet name="Progress_Chart" sheetId="4" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Audit_Review!$A$1:$L$1</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="343">
   <si>
     <t>Raised By</t>
   </si>
@@ -764,9 +762,6 @@
   </si>
   <si>
     <t>13/5</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>F_REVIEW_register_002</t>
@@ -1160,30 +1155,15 @@
     <t>in TC_F_Reg_User_005 the expected Result is incorrect 
 Please Review The SRS</t>
   </si>
-  <si>
-    <t>F_REVIEW_BugReport_V1.0_001</t>
-  </si>
-  <si>
-    <t>Hager Nassar</t>
-  </si>
-  <si>
-    <t>27/5/2022</t>
-  </si>
-  <si>
-    <t>Please add a coloumn with the environment specifications.</t>
-  </si>
-  <si>
-    <t>In test steps, please remove the steps that are already a precondition.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,15 +1206,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,12 +1240,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C80"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1521,31 +1488,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1575,12 +1518,295 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="252">
+  <dxfs count="292">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4423,6 +4649,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4549,6 +4776,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4572,6 +4800,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4582,6 +4811,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4605,6 +4835,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4615,6 +4846,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4638,6 +4870,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4648,6 +4881,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -4671,6 +4905,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -4803,6 +5038,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4884,6 +5120,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5010,6 +5247,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5033,6 +5271,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5043,6 +5282,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5066,6 +5306,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5076,6 +5317,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5099,6 +5341,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5109,6 +5352,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5132,6 +5376,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5264,6 +5509,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5345,6 +5591,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5471,6 +5718,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5494,6 +5742,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5504,6 +5753,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5527,6 +5777,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5537,6 +5788,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5560,6 +5812,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5570,6 +5823,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5593,6 +5847,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5724,6 +5979,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5805,6 +6061,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5931,6 +6188,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5954,6 +6212,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5964,6 +6223,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5987,6 +6247,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5997,6 +6258,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6020,6 +6282,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -6030,6 +6293,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -6053,6 +6317,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -6184,6 +6449,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8998,14 +9264,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9223,15 +9489,15 @@
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -9435,15 +9701,15 @@
     </row>
     <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -9479,44 +9745,44 @@
     <mergeCell ref="B16:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F15 F18:F1048576">
-    <cfRule type="cellIs" dxfId="251" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="10" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="247" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="6" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="243" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9525,7 +9791,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -9538,137 +9804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB82819F-4AB5-40E8-B172-72080275FDD0}">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="58.21875" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.88671875" customWidth="1"/>
-    <col min="5" max="5" width="60.44140625" customWidth="1"/>
-    <col min="6" max="6" width="68.33203125" customWidth="1"/>
-    <col min="7" max="7" width="66.77734375" customWidth="1"/>
-    <col min="8" max="8" width="60.88671875" customWidth="1"/>
-    <col min="9" max="9" width="46.88671875" customWidth="1"/>
-    <col min="10" max="10" width="60" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>347</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-    </row>
-    <row r="3" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>348</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:N46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9684,7 +9820,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -9694,7 +9830,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="59" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -9706,7 +9842,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -9714,7 +9850,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Closed")</f>
         <v>14</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="4" t="s">
         <v>6</v>
       </c>
@@ -9724,7 +9860,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="14" t="s">
         <v>46</v>
       </c>
@@ -9732,7 +9868,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L5" s="67"/>
+      <c r="L5" s="59"/>
       <c r="M5" s="15" t="s">
         <v>46</v>
       </c>
@@ -9742,7 +9878,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="14" t="s">
         <v>66</v>
       </c>
@@ -9750,7 +9886,7 @@
         <f>COUNTIFS(PMP_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="67"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="15" t="s">
         <v>66</v>
       </c>
@@ -9760,7 +9896,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -9768,7 +9904,7 @@
         <f>SUM(C3:C6)</f>
         <v>14</v>
       </c>
-      <c r="L7" s="67"/>
+      <c r="L7" s="59"/>
       <c r="M7" s="4" t="s">
         <v>9</v>
       </c>
@@ -9778,7 +9914,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="58" t="s">
         <v>199</v>
       </c>
       <c r="B23" s="23" t="s">
@@ -9788,7 +9924,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L23" s="67" t="s">
+      <c r="L23" s="59" t="s">
         <v>76</v>
       </c>
       <c r="M23" s="24" t="s">
@@ -9800,7 +9936,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="23" t="s">
         <v>6</v>
       </c>
@@ -9808,7 +9944,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Closed")</f>
         <v>19</v>
       </c>
-      <c r="L24" s="67"/>
+      <c r="L24" s="59"/>
       <c r="M24" s="24" t="s">
         <v>6</v>
       </c>
@@ -9818,7 +9954,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="23" t="s">
         <v>46</v>
       </c>
@@ -9826,7 +9962,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L25" s="67"/>
+      <c r="L25" s="59"/>
       <c r="M25" s="24" t="s">
         <v>46</v>
       </c>
@@ -9836,7 +9972,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
+      <c r="A26" s="58"/>
       <c r="B26" s="23" t="s">
         <v>66</v>
       </c>
@@ -9844,7 +9980,7 @@
         <f>COUNTIF(WireFrame_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L26" s="67"/>
+      <c r="L26" s="59"/>
       <c r="M26" s="24" t="s">
         <v>66</v>
       </c>
@@ -9854,7 +9990,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
+      <c r="A27" s="58"/>
       <c r="B27" s="23" t="s">
         <v>9</v>
       </c>
@@ -9862,7 +9998,7 @@
         <f>SUM(C23:C26)</f>
         <v>19</v>
       </c>
-      <c r="L27" s="67"/>
+      <c r="L27" s="59"/>
       <c r="M27" s="24" t="s">
         <v>9</v>
       </c>
@@ -9875,7 +10011,7 @@
       <c r="H34" s="25"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="58" t="s">
         <v>111</v>
       </c>
       <c r="B42" s="23" t="s">
@@ -9885,7 +10021,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Open")</f>
         <v>0</v>
       </c>
-      <c r="L42" s="67" t="s">
+      <c r="L42" s="59" t="s">
         <v>129</v>
       </c>
       <c r="M42" s="24" t="s">
@@ -9897,7 +10033,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="66"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="23" t="s">
         <v>6</v>
       </c>
@@ -9905,7 +10041,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Closed")</f>
         <v>2</v>
       </c>
-      <c r="L43" s="67"/>
+      <c r="L43" s="59"/>
       <c r="M43" s="24" t="s">
         <v>6</v>
       </c>
@@ -9915,7 +10051,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="66"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="23" t="s">
         <v>46</v>
       </c>
@@ -9923,7 +10059,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"In Progress")</f>
         <v>0</v>
       </c>
-      <c r="L44" s="67"/>
+      <c r="L44" s="59"/>
       <c r="M44" s="24" t="s">
         <v>46</v>
       </c>
@@ -9933,7 +10069,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="66"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="23" t="s">
         <v>66</v>
       </c>
@@ -9941,7 +10077,7 @@
         <f>COUNTIF(Sequence_Diagrams_Review!F2:F1048576,"Need Approval")</f>
         <v>0</v>
       </c>
-      <c r="L45" s="67"/>
+      <c r="L45" s="59"/>
       <c r="M45" s="24" t="s">
         <v>66</v>
       </c>
@@ -9951,7 +10087,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="66"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="23" t="s">
         <v>9</v>
       </c>
@@ -9959,7 +10095,7 @@
         <f>SUM(C42:C45)</f>
         <v>2</v>
       </c>
-      <c r="L46" s="67"/>
+      <c r="L46" s="59"/>
       <c r="M46" s="24" t="s">
         <v>9</v>
       </c>
@@ -9983,7 +10119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10021,7 +10157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10251,16 +10387,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="239" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="2" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10269,7 +10405,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -10282,11 +10418,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10649,16 +10785,16 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -10791,61 +10927,61 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>225</v>
       </c>
       <c r="H21" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>225</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -10854,240 +10990,240 @@
     <mergeCell ref="A20:J20"/>
   </mergeCells>
   <conditionalFormatting sqref="F23:F1048576 F1:F3">
-    <cfRule type="cellIs" dxfId="235" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="78" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="79" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="80" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="231" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="74" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="75" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="76" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="227" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="70" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="71" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="72" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="223" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="66" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="67" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="68" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="219" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="62" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="63" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="64" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="215" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="58" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="59" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="60" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="211" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="54" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="55" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="56" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="207" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="50" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="51" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="52" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="203" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="46" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="47" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="48" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="199" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="42" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="43" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="44" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="195" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="191" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="187" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F19">
-    <cfRule type="cellIs" dxfId="183" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21 H21">
-    <cfRule type="cellIs" dxfId="179" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="175" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11096,7 +11232,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -11109,10 +11245,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -11168,24 +11304,24 @@
         <v>175</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="39" t="s">
         <v>255</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>101</v>
@@ -11194,24 +11330,24 @@
         <v>175</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F3" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>101</v>
@@ -11220,24 +11356,24 @@
         <v>175</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F4" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>101</v>
@@ -11246,22 +11382,22 @@
         <v>175</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>101</v>
@@ -11270,22 +11406,22 @@
         <v>175</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>229</v>
+        <v>242</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>6</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="38" t="s">
         <v>101</v>
@@ -11294,24 +11430,24 @@
         <v>175</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>101</v>
@@ -11320,25 +11456,25 @@
         <v>175</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I10" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>101</v>
@@ -11347,21 +11483,21 @@
         <v>175</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="38" t="s">
         <v>101</v>
@@ -11370,33 +11506,33 @@
         <v>175</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F13" s="40" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="167" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11405,7 +11541,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'F:\monika\QA_Foodies\Monitor and Control\[F_Review.xlsx]Options'!#REF!</xm:f>
           </x14:formula1>
@@ -11418,11 +11554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
@@ -11784,15 +11920,15 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -12020,19 +12156,19 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>11</v>
@@ -12044,13 +12180,13 @@
         <v>44700</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H24" s="43">
         <v>18</v>
@@ -12071,30 +12207,30 @@
     <mergeCell ref="B23:J23"/>
   </mergeCells>
   <conditionalFormatting sqref="F14:F21 F32:F38 F1:F12 F40:F1048576">
-    <cfRule type="cellIs" dxfId="163" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="159" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12103,7 +12239,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -12116,7 +12252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12288,16 +12424,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 F23:F1048576 F1:F12">
-    <cfRule type="cellIs" dxfId="155" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12305,7 +12441,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
@@ -12318,14 +12454,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G26" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12627,18 +12763,18 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -13237,18 +13373,18 @@
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
@@ -13261,7 +13397,7 @@
         <v>114</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="10">
         <v>44688</v>
@@ -13270,7 +13406,7 @@
         <v>132</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>6</v>
@@ -13279,7 +13415,7 @@
         <v>114</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -13302,7 +13438,7 @@
         <v>132</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>6</v>
@@ -13311,7 +13447,7 @@
         <v>114</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -13343,7 +13479,7 @@
         <v>114</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -13357,7 +13493,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E32" s="10">
         <v>44688</v>
@@ -13366,7 +13502,7 @@
         <v>132</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>6</v>
@@ -13375,12 +13511,12 @@
         <v>114</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>8</v>
@@ -13389,7 +13525,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E33" s="10">
         <v>44688</v>
@@ -13398,7 +13534,7 @@
         <v>132</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>6</v>
@@ -13407,41 +13543,41 @@
         <v>114</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="57"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E35" s="47">
         <v>44702</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>6</v>
@@ -13449,252 +13585,392 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="47">
         <v>44702</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E37" s="47">
         <v>44702</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E38" s="47">
         <v>44702</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H38" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E39" s="47">
         <v>44702</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G40" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:L1"/>
   <mergeCells count="3">
     <mergeCell ref="A10:L10"/>
     <mergeCell ref="A28:L28"/>
     <mergeCell ref="A34:L34"/>
   </mergeCells>
-  <conditionalFormatting sqref="H35:H1048576">
-    <cfRule type="cellIs" dxfId="151" priority="233" operator="equal">
+  <conditionalFormatting sqref="H35 H41:H1048576">
+    <cfRule type="cellIs" dxfId="191" priority="273" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="274" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="275" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="276" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="147" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="189" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="190" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="191" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="192" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="143" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="185" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="186" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="188" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="139" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="181" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="182" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="183" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="184" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16">
-    <cfRule type="cellIs" dxfId="135" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="177" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="178" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="179" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="180" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="173" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="174" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="175" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="176" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H20">
-    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="169" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="171" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="172" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="123" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="157" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="158" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="159" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="160" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="119" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="153" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="154" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="155" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="156" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="149" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="150" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="151" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="152" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="151" priority="125" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="126" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="127" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="128" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="147" priority="121" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="122" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="123" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="124" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="143" priority="117" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="118" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="119" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="120" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="139" priority="113" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="114" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="115" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="116" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="135" priority="109" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="110" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="111" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="112" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="131" priority="105" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="106" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="107" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="108" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="127" priority="101" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="102" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="103" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="104" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="123" priority="97" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="98" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="99" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="100" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="119" priority="93" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="94" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="95" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="96" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="115" priority="89" operator="equal">
+      <formula>"Need Approval"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="90" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="91" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="92" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H31 H33">
     <cfRule type="cellIs" dxfId="111" priority="85" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13708,7 +13984,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
+  <conditionalFormatting sqref="H29:H31 H33">
     <cfRule type="cellIs" dxfId="107" priority="81" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13722,7 +13998,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="103" priority="77" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13736,7 +14012,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H21">
     <cfRule type="cellIs" dxfId="99" priority="73" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13750,7 +14026,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H7:H9">
     <cfRule type="cellIs" dxfId="95" priority="69" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13764,7 +14040,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="H7:H9">
     <cfRule type="cellIs" dxfId="91" priority="65" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13778,7 +14054,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H3:H6">
     <cfRule type="cellIs" dxfId="87" priority="61" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13792,7 +14068,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H3:H6">
     <cfRule type="cellIs" dxfId="83" priority="57" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13806,7 +14082,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H2">
     <cfRule type="cellIs" dxfId="79" priority="53" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13820,7 +14096,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="H2">
     <cfRule type="cellIs" dxfId="75" priority="49" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13834,7 +14110,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H31 H33">
+  <conditionalFormatting sqref="H32">
     <cfRule type="cellIs" dxfId="71" priority="45" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13848,7 +14124,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H31 H33">
+  <conditionalFormatting sqref="H32">
     <cfRule type="cellIs" dxfId="67" priority="41" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
@@ -13862,143 +14138,143 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="59" priority="33" operator="equal">
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="55" priority="29" operator="equal">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="51" priority="25" operator="equal">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="47" priority="21" operator="equal">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="43" priority="17" operator="equal">
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="39" priority="13" operator="equal">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14007,17 +14283,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H35:H1048576</xm:sqref>
+          <xm:sqref>H41:H1048576 H35</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Options!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>H11:H27 H1:H9 H29:H33</xm:sqref>
+          <xm:sqref>H11:H27 H1:H9 H29:H33 H36:H40</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14026,11 +14302,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC0C8B8-7956-4122-85A2-1A4F293B4470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:LE41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14086,94 +14362,94 @@
     </row>
     <row r="2" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>7</v>
+      <c r="G2" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F3" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>7</v>
+        <v>284</v>
+      </c>
+      <c r="G3" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F4" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>7</v>
+        <v>286</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F5" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>7</v>
+        <v>288</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -14191,140 +14467,140 @@
     </row>
     <row r="7" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F7" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>7</v>
+        <v>290</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G8" s="50" t="s">
-        <v>7</v>
+      <c r="G8" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F9" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" s="50" t="s">
-        <v>7</v>
+        <v>293</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F10" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>7</v>
+        <v>295</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F11" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>7</v>
+        <v>297</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F12" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="50" t="s">
-        <v>7</v>
+        <v>299</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -14342,140 +14618,140 @@
     </row>
     <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F14" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" s="50" t="s">
-        <v>7</v>
+        <v>301</v>
+      </c>
+      <c r="G14" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F15" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>7</v>
+        <v>303</v>
+      </c>
+      <c r="G15" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F16" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>7</v>
+        <v>305</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:317" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F17" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>7</v>
+        <v>307</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:317" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F18" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>7</v>
+        <v>309</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:317" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>7</v>
+        <v>311</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:317" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -14493,48 +14769,48 @@
     </row>
     <row r="21" spans="1:317" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F21" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>7</v>
+        <v>313</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:317" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="F22" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>7</v>
+        <v>315</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:317" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -14552,25 +14828,25 @@
     </row>
     <row r="24" spans="1:317" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>7</v>
+      <c r="G24" s="60" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:317" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -14588,28 +14864,28 @@
     </row>
     <row r="26" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E26" s="47">
         <v>44707</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="G26" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I26" s="47">
         <v>44707</v>
@@ -14617,28 +14893,28 @@
     </row>
     <row r="27" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E27" s="47">
         <v>44707</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G27" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I27" s="47">
         <v>44707</v>
@@ -14646,28 +14922,28 @@
     </row>
     <row r="28" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E28" s="47">
         <v>44707</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I28" s="47">
         <v>44707</v>
@@ -14675,28 +14951,28 @@
     </row>
     <row r="29" spans="1:317" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E29" s="47">
         <v>44707</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G29" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I29" s="47">
         <v>44707</v>
@@ -14704,336 +14980,336 @@
     </row>
     <row r="30" spans="1:317" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="K30" s="48"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="51"/>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="51"/>
-      <c r="AU30" s="51"/>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="51"/>
-      <c r="AX30" s="51"/>
-      <c r="AY30" s="51"/>
-      <c r="AZ30" s="51"/>
-      <c r="BA30" s="51"/>
-      <c r="BB30" s="51"/>
-      <c r="BC30" s="51"/>
-      <c r="BD30" s="51"/>
-      <c r="BE30" s="51"/>
-      <c r="BF30" s="51"/>
-      <c r="BG30" s="51"/>
-      <c r="BH30" s="51"/>
-      <c r="BI30" s="51"/>
-      <c r="BJ30" s="51"/>
-      <c r="BK30" s="51"/>
-      <c r="BL30" s="51"/>
-      <c r="BM30" s="51"/>
-      <c r="BN30" s="51"/>
-      <c r="BO30" s="51"/>
-      <c r="BP30" s="51"/>
-      <c r="BQ30" s="51"/>
-      <c r="BR30" s="51"/>
-      <c r="BS30" s="51"/>
-      <c r="BT30" s="51"/>
-      <c r="BU30" s="51"/>
-      <c r="BV30" s="51"/>
-      <c r="BW30" s="51"/>
-      <c r="BX30" s="51"/>
-      <c r="BY30" s="51"/>
-      <c r="BZ30" s="51"/>
-      <c r="CA30" s="51"/>
-      <c r="CB30" s="51"/>
-      <c r="CC30" s="51"/>
-      <c r="CD30" s="51"/>
-      <c r="CE30" s="51"/>
-      <c r="CF30" s="51"/>
-      <c r="CG30" s="51"/>
-      <c r="CH30" s="51"/>
-      <c r="CI30" s="51"/>
-      <c r="CJ30" s="51"/>
-      <c r="CK30" s="51"/>
-      <c r="CL30" s="51"/>
-      <c r="CM30" s="51"/>
-      <c r="CN30" s="51"/>
-      <c r="CO30" s="51"/>
-      <c r="CP30" s="51"/>
-      <c r="CQ30" s="51"/>
-      <c r="CR30" s="51"/>
-      <c r="CS30" s="51"/>
-      <c r="CT30" s="51"/>
-      <c r="CU30" s="51"/>
-      <c r="CV30" s="51"/>
-      <c r="CW30" s="51"/>
-      <c r="CX30" s="51"/>
-      <c r="CY30" s="51"/>
-      <c r="CZ30" s="51"/>
-      <c r="DA30" s="51"/>
-      <c r="DB30" s="51"/>
-      <c r="DC30" s="51"/>
-      <c r="DD30" s="51"/>
-      <c r="DE30" s="51"/>
-      <c r="DF30" s="51"/>
-      <c r="DG30" s="51"/>
-      <c r="DH30" s="51"/>
-      <c r="DI30" s="51"/>
-      <c r="DJ30" s="51"/>
-      <c r="DK30" s="51"/>
-      <c r="DL30" s="51"/>
-      <c r="DM30" s="51"/>
-      <c r="DN30" s="51"/>
-      <c r="DO30" s="51"/>
-      <c r="DP30" s="51"/>
-      <c r="DQ30" s="51"/>
-      <c r="DR30" s="51"/>
-      <c r="DS30" s="51"/>
-      <c r="DT30" s="51"/>
-      <c r="DU30" s="51"/>
-      <c r="DV30" s="51"/>
-      <c r="DW30" s="51"/>
-      <c r="DX30" s="51"/>
-      <c r="DY30" s="51"/>
-      <c r="DZ30" s="51"/>
-      <c r="EA30" s="51"/>
-      <c r="EB30" s="51"/>
-      <c r="EC30" s="51"/>
-      <c r="ED30" s="51"/>
-      <c r="EE30" s="51"/>
-      <c r="EF30" s="51"/>
-      <c r="EG30" s="51"/>
-      <c r="EH30" s="51"/>
-      <c r="EI30" s="51"/>
-      <c r="EJ30" s="51"/>
-      <c r="EK30" s="51"/>
-      <c r="EL30" s="51"/>
-      <c r="EM30" s="51"/>
-      <c r="EN30" s="51"/>
-      <c r="EO30" s="51"/>
-      <c r="EP30" s="51"/>
-      <c r="EQ30" s="51"/>
-      <c r="ER30" s="51"/>
-      <c r="ES30" s="51"/>
-      <c r="ET30" s="51"/>
-      <c r="EU30" s="51"/>
-      <c r="EV30" s="51"/>
-      <c r="EW30" s="51"/>
-      <c r="EX30" s="51"/>
-      <c r="EY30" s="51"/>
-      <c r="EZ30" s="51"/>
-      <c r="FA30" s="51"/>
-      <c r="FB30" s="51"/>
-      <c r="FC30" s="51"/>
-      <c r="FD30" s="51"/>
-      <c r="FE30" s="51"/>
-      <c r="FF30" s="51"/>
-      <c r="FG30" s="51"/>
-      <c r="FH30" s="51"/>
-      <c r="FI30" s="51"/>
-      <c r="FJ30" s="51"/>
-      <c r="FK30" s="51"/>
-      <c r="FL30" s="51"/>
-      <c r="FM30" s="51"/>
-      <c r="FN30" s="51"/>
-      <c r="FO30" s="51"/>
-      <c r="FP30" s="51"/>
-      <c r="FQ30" s="51"/>
-      <c r="FR30" s="51"/>
-      <c r="FS30" s="51"/>
-      <c r="FT30" s="51"/>
-      <c r="FU30" s="51"/>
-      <c r="FV30" s="51"/>
-      <c r="FW30" s="51"/>
-      <c r="FX30" s="51"/>
-      <c r="FY30" s="51"/>
-      <c r="FZ30" s="51"/>
-      <c r="GA30" s="51"/>
-      <c r="GB30" s="51"/>
-      <c r="GC30" s="51"/>
-      <c r="GD30" s="51"/>
-      <c r="GE30" s="51"/>
-      <c r="GF30" s="51"/>
-      <c r="GG30" s="51"/>
-      <c r="GH30" s="51"/>
-      <c r="GI30" s="51"/>
-      <c r="GJ30" s="51"/>
-      <c r="GK30" s="51"/>
-      <c r="GL30" s="51"/>
-      <c r="GM30" s="51"/>
-      <c r="GN30" s="51"/>
-      <c r="GO30" s="51"/>
-      <c r="GP30" s="51"/>
-      <c r="GQ30" s="51"/>
-      <c r="GR30" s="51"/>
-      <c r="GS30" s="51"/>
-      <c r="GT30" s="51"/>
-      <c r="GU30" s="51"/>
-      <c r="GV30" s="51"/>
-      <c r="GW30" s="51"/>
-      <c r="GX30" s="51"/>
-      <c r="GY30" s="51"/>
-      <c r="GZ30" s="51"/>
-      <c r="HA30" s="51"/>
-      <c r="HB30" s="51"/>
-      <c r="HC30" s="51"/>
-      <c r="HD30" s="51"/>
-      <c r="HE30" s="51"/>
-      <c r="HF30" s="51"/>
-      <c r="HG30" s="51"/>
-      <c r="HH30" s="51"/>
-      <c r="HI30" s="51"/>
-      <c r="HJ30" s="51"/>
-      <c r="HK30" s="51"/>
-      <c r="HL30" s="51"/>
-      <c r="HM30" s="51"/>
-      <c r="HN30" s="51"/>
-      <c r="HO30" s="51"/>
-      <c r="HP30" s="51"/>
-      <c r="HQ30" s="51"/>
-      <c r="HR30" s="51"/>
-      <c r="HS30" s="51"/>
-      <c r="HT30" s="51"/>
-      <c r="HU30" s="51"/>
-      <c r="HV30" s="51"/>
-      <c r="HW30" s="51"/>
-      <c r="HX30" s="51"/>
-      <c r="HY30" s="51"/>
-      <c r="HZ30" s="51"/>
-      <c r="IA30" s="51"/>
-      <c r="IB30" s="51"/>
-      <c r="IC30" s="51"/>
-      <c r="ID30" s="51"/>
-      <c r="IE30" s="51"/>
-      <c r="IF30" s="51"/>
-      <c r="IG30" s="51"/>
-      <c r="IH30" s="51"/>
-      <c r="II30" s="51"/>
-      <c r="IJ30" s="51"/>
-      <c r="IK30" s="51"/>
-      <c r="IL30" s="51"/>
-      <c r="IM30" s="51"/>
-      <c r="IN30" s="51"/>
-      <c r="IO30" s="51"/>
-      <c r="IP30" s="51"/>
-      <c r="IQ30" s="51"/>
-      <c r="IR30" s="51"/>
-      <c r="IS30" s="51"/>
-      <c r="IT30" s="51"/>
-      <c r="IU30" s="51"/>
-      <c r="IV30" s="51"/>
-      <c r="IW30" s="51"/>
-      <c r="IX30" s="51"/>
-      <c r="IY30" s="51"/>
-      <c r="IZ30" s="51"/>
-      <c r="JA30" s="51"/>
-      <c r="JB30" s="51"/>
-      <c r="JC30" s="51"/>
-      <c r="JD30" s="51"/>
-      <c r="JE30" s="51"/>
-      <c r="JF30" s="51"/>
-      <c r="JG30" s="51"/>
-      <c r="JH30" s="51"/>
-      <c r="JI30" s="51"/>
-      <c r="JJ30" s="51"/>
-      <c r="JK30" s="51"/>
-      <c r="JL30" s="51"/>
-      <c r="JM30" s="51"/>
-      <c r="JN30" s="51"/>
-      <c r="JO30" s="51"/>
-      <c r="JP30" s="51"/>
-      <c r="JQ30" s="51"/>
-      <c r="JR30" s="51"/>
-      <c r="JS30" s="51"/>
-      <c r="JT30" s="51"/>
-      <c r="JU30" s="51"/>
-      <c r="JV30" s="51"/>
-      <c r="JW30" s="51"/>
-      <c r="JX30" s="51"/>
-      <c r="JY30" s="51"/>
-      <c r="JZ30" s="51"/>
-      <c r="KA30" s="51"/>
-      <c r="KB30" s="51"/>
-      <c r="KC30" s="51"/>
-      <c r="KD30" s="51"/>
-      <c r="KE30" s="51"/>
-      <c r="KF30" s="51"/>
-      <c r="KG30" s="51"/>
-      <c r="KH30" s="51"/>
-      <c r="KI30" s="51"/>
-      <c r="KJ30" s="51"/>
-      <c r="KK30" s="51"/>
-      <c r="KL30" s="51"/>
-      <c r="KM30" s="51"/>
-      <c r="KN30" s="51"/>
-      <c r="KO30" s="51"/>
-      <c r="KP30" s="51"/>
-      <c r="KQ30" s="51"/>
-      <c r="KR30" s="51"/>
-      <c r="KS30" s="51"/>
-      <c r="KT30" s="51"/>
-      <c r="KU30" s="51"/>
-      <c r="KV30" s="51"/>
-      <c r="KW30" s="51"/>
-      <c r="KX30" s="51"/>
-      <c r="KY30" s="51"/>
-      <c r="KZ30" s="51"/>
-      <c r="LA30" s="51"/>
-      <c r="LB30" s="51"/>
-      <c r="LC30" s="51"/>
-      <c r="LD30" s="51"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="50"/>
+      <c r="AJ30" s="50"/>
+      <c r="AK30" s="50"/>
+      <c r="AL30" s="50"/>
+      <c r="AM30" s="50"/>
+      <c r="AN30" s="50"/>
+      <c r="AO30" s="50"/>
+      <c r="AP30" s="50"/>
+      <c r="AQ30" s="50"/>
+      <c r="AR30" s="50"/>
+      <c r="AS30" s="50"/>
+      <c r="AT30" s="50"/>
+      <c r="AU30" s="50"/>
+      <c r="AV30" s="50"/>
+      <c r="AW30" s="50"/>
+      <c r="AX30" s="50"/>
+      <c r="AY30" s="50"/>
+      <c r="AZ30" s="50"/>
+      <c r="BA30" s="50"/>
+      <c r="BB30" s="50"/>
+      <c r="BC30" s="50"/>
+      <c r="BD30" s="50"/>
+      <c r="BE30" s="50"/>
+      <c r="BF30" s="50"/>
+      <c r="BG30" s="50"/>
+      <c r="BH30" s="50"/>
+      <c r="BI30" s="50"/>
+      <c r="BJ30" s="50"/>
+      <c r="BK30" s="50"/>
+      <c r="BL30" s="50"/>
+      <c r="BM30" s="50"/>
+      <c r="BN30" s="50"/>
+      <c r="BO30" s="50"/>
+      <c r="BP30" s="50"/>
+      <c r="BQ30" s="50"/>
+      <c r="BR30" s="50"/>
+      <c r="BS30" s="50"/>
+      <c r="BT30" s="50"/>
+      <c r="BU30" s="50"/>
+      <c r="BV30" s="50"/>
+      <c r="BW30" s="50"/>
+      <c r="BX30" s="50"/>
+      <c r="BY30" s="50"/>
+      <c r="BZ30" s="50"/>
+      <c r="CA30" s="50"/>
+      <c r="CB30" s="50"/>
+      <c r="CC30" s="50"/>
+      <c r="CD30" s="50"/>
+      <c r="CE30" s="50"/>
+      <c r="CF30" s="50"/>
+      <c r="CG30" s="50"/>
+      <c r="CH30" s="50"/>
+      <c r="CI30" s="50"/>
+      <c r="CJ30" s="50"/>
+      <c r="CK30" s="50"/>
+      <c r="CL30" s="50"/>
+      <c r="CM30" s="50"/>
+      <c r="CN30" s="50"/>
+      <c r="CO30" s="50"/>
+      <c r="CP30" s="50"/>
+      <c r="CQ30" s="50"/>
+      <c r="CR30" s="50"/>
+      <c r="CS30" s="50"/>
+      <c r="CT30" s="50"/>
+      <c r="CU30" s="50"/>
+      <c r="CV30" s="50"/>
+      <c r="CW30" s="50"/>
+      <c r="CX30" s="50"/>
+      <c r="CY30" s="50"/>
+      <c r="CZ30" s="50"/>
+      <c r="DA30" s="50"/>
+      <c r="DB30" s="50"/>
+      <c r="DC30" s="50"/>
+      <c r="DD30" s="50"/>
+      <c r="DE30" s="50"/>
+      <c r="DF30" s="50"/>
+      <c r="DG30" s="50"/>
+      <c r="DH30" s="50"/>
+      <c r="DI30" s="50"/>
+      <c r="DJ30" s="50"/>
+      <c r="DK30" s="50"/>
+      <c r="DL30" s="50"/>
+      <c r="DM30" s="50"/>
+      <c r="DN30" s="50"/>
+      <c r="DO30" s="50"/>
+      <c r="DP30" s="50"/>
+      <c r="DQ30" s="50"/>
+      <c r="DR30" s="50"/>
+      <c r="DS30" s="50"/>
+      <c r="DT30" s="50"/>
+      <c r="DU30" s="50"/>
+      <c r="DV30" s="50"/>
+      <c r="DW30" s="50"/>
+      <c r="DX30" s="50"/>
+      <c r="DY30" s="50"/>
+      <c r="DZ30" s="50"/>
+      <c r="EA30" s="50"/>
+      <c r="EB30" s="50"/>
+      <c r="EC30" s="50"/>
+      <c r="ED30" s="50"/>
+      <c r="EE30" s="50"/>
+      <c r="EF30" s="50"/>
+      <c r="EG30" s="50"/>
+      <c r="EH30" s="50"/>
+      <c r="EI30" s="50"/>
+      <c r="EJ30" s="50"/>
+      <c r="EK30" s="50"/>
+      <c r="EL30" s="50"/>
+      <c r="EM30" s="50"/>
+      <c r="EN30" s="50"/>
+      <c r="EO30" s="50"/>
+      <c r="EP30" s="50"/>
+      <c r="EQ30" s="50"/>
+      <c r="ER30" s="50"/>
+      <c r="ES30" s="50"/>
+      <c r="ET30" s="50"/>
+      <c r="EU30" s="50"/>
+      <c r="EV30" s="50"/>
+      <c r="EW30" s="50"/>
+      <c r="EX30" s="50"/>
+      <c r="EY30" s="50"/>
+      <c r="EZ30" s="50"/>
+      <c r="FA30" s="50"/>
+      <c r="FB30" s="50"/>
+      <c r="FC30" s="50"/>
+      <c r="FD30" s="50"/>
+      <c r="FE30" s="50"/>
+      <c r="FF30" s="50"/>
+      <c r="FG30" s="50"/>
+      <c r="FH30" s="50"/>
+      <c r="FI30" s="50"/>
+      <c r="FJ30" s="50"/>
+      <c r="FK30" s="50"/>
+      <c r="FL30" s="50"/>
+      <c r="FM30" s="50"/>
+      <c r="FN30" s="50"/>
+      <c r="FO30" s="50"/>
+      <c r="FP30" s="50"/>
+      <c r="FQ30" s="50"/>
+      <c r="FR30" s="50"/>
+      <c r="FS30" s="50"/>
+      <c r="FT30" s="50"/>
+      <c r="FU30" s="50"/>
+      <c r="FV30" s="50"/>
+      <c r="FW30" s="50"/>
+      <c r="FX30" s="50"/>
+      <c r="FY30" s="50"/>
+      <c r="FZ30" s="50"/>
+      <c r="GA30" s="50"/>
+      <c r="GB30" s="50"/>
+      <c r="GC30" s="50"/>
+      <c r="GD30" s="50"/>
+      <c r="GE30" s="50"/>
+      <c r="GF30" s="50"/>
+      <c r="GG30" s="50"/>
+      <c r="GH30" s="50"/>
+      <c r="GI30" s="50"/>
+      <c r="GJ30" s="50"/>
+      <c r="GK30" s="50"/>
+      <c r="GL30" s="50"/>
+      <c r="GM30" s="50"/>
+      <c r="GN30" s="50"/>
+      <c r="GO30" s="50"/>
+      <c r="GP30" s="50"/>
+      <c r="GQ30" s="50"/>
+      <c r="GR30" s="50"/>
+      <c r="GS30" s="50"/>
+      <c r="GT30" s="50"/>
+      <c r="GU30" s="50"/>
+      <c r="GV30" s="50"/>
+      <c r="GW30" s="50"/>
+      <c r="GX30" s="50"/>
+      <c r="GY30" s="50"/>
+      <c r="GZ30" s="50"/>
+      <c r="HA30" s="50"/>
+      <c r="HB30" s="50"/>
+      <c r="HC30" s="50"/>
+      <c r="HD30" s="50"/>
+      <c r="HE30" s="50"/>
+      <c r="HF30" s="50"/>
+      <c r="HG30" s="50"/>
+      <c r="HH30" s="50"/>
+      <c r="HI30" s="50"/>
+      <c r="HJ30" s="50"/>
+      <c r="HK30" s="50"/>
+      <c r="HL30" s="50"/>
+      <c r="HM30" s="50"/>
+      <c r="HN30" s="50"/>
+      <c r="HO30" s="50"/>
+      <c r="HP30" s="50"/>
+      <c r="HQ30" s="50"/>
+      <c r="HR30" s="50"/>
+      <c r="HS30" s="50"/>
+      <c r="HT30" s="50"/>
+      <c r="HU30" s="50"/>
+      <c r="HV30" s="50"/>
+      <c r="HW30" s="50"/>
+      <c r="HX30" s="50"/>
+      <c r="HY30" s="50"/>
+      <c r="HZ30" s="50"/>
+      <c r="IA30" s="50"/>
+      <c r="IB30" s="50"/>
+      <c r="IC30" s="50"/>
+      <c r="ID30" s="50"/>
+      <c r="IE30" s="50"/>
+      <c r="IF30" s="50"/>
+      <c r="IG30" s="50"/>
+      <c r="IH30" s="50"/>
+      <c r="II30" s="50"/>
+      <c r="IJ30" s="50"/>
+      <c r="IK30" s="50"/>
+      <c r="IL30" s="50"/>
+      <c r="IM30" s="50"/>
+      <c r="IN30" s="50"/>
+      <c r="IO30" s="50"/>
+      <c r="IP30" s="50"/>
+      <c r="IQ30" s="50"/>
+      <c r="IR30" s="50"/>
+      <c r="IS30" s="50"/>
+      <c r="IT30" s="50"/>
+      <c r="IU30" s="50"/>
+      <c r="IV30" s="50"/>
+      <c r="IW30" s="50"/>
+      <c r="IX30" s="50"/>
+      <c r="IY30" s="50"/>
+      <c r="IZ30" s="50"/>
+      <c r="JA30" s="50"/>
+      <c r="JB30" s="50"/>
+      <c r="JC30" s="50"/>
+      <c r="JD30" s="50"/>
+      <c r="JE30" s="50"/>
+      <c r="JF30" s="50"/>
+      <c r="JG30" s="50"/>
+      <c r="JH30" s="50"/>
+      <c r="JI30" s="50"/>
+      <c r="JJ30" s="50"/>
+      <c r="JK30" s="50"/>
+      <c r="JL30" s="50"/>
+      <c r="JM30" s="50"/>
+      <c r="JN30" s="50"/>
+      <c r="JO30" s="50"/>
+      <c r="JP30" s="50"/>
+      <c r="JQ30" s="50"/>
+      <c r="JR30" s="50"/>
+      <c r="JS30" s="50"/>
+      <c r="JT30" s="50"/>
+      <c r="JU30" s="50"/>
+      <c r="JV30" s="50"/>
+      <c r="JW30" s="50"/>
+      <c r="JX30" s="50"/>
+      <c r="JY30" s="50"/>
+      <c r="JZ30" s="50"/>
+      <c r="KA30" s="50"/>
+      <c r="KB30" s="50"/>
+      <c r="KC30" s="50"/>
+      <c r="KD30" s="50"/>
+      <c r="KE30" s="50"/>
+      <c r="KF30" s="50"/>
+      <c r="KG30" s="50"/>
+      <c r="KH30" s="50"/>
+      <c r="KI30" s="50"/>
+      <c r="KJ30" s="50"/>
+      <c r="KK30" s="50"/>
+      <c r="KL30" s="50"/>
+      <c r="KM30" s="50"/>
+      <c r="KN30" s="50"/>
+      <c r="KO30" s="50"/>
+      <c r="KP30" s="50"/>
+      <c r="KQ30" s="50"/>
+      <c r="KR30" s="50"/>
+      <c r="KS30" s="50"/>
+      <c r="KT30" s="50"/>
+      <c r="KU30" s="50"/>
+      <c r="KV30" s="50"/>
+      <c r="KW30" s="50"/>
+      <c r="KX30" s="50"/>
+      <c r="KY30" s="50"/>
+      <c r="KZ30" s="50"/>
+      <c r="LA30" s="50"/>
+      <c r="LB30" s="50"/>
+      <c r="LC30" s="50"/>
+      <c r="LD30" s="50"/>
       <c r="LE30" s="49"/>
     </row>
     <row r="31" spans="1:317" customFormat="1" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E31" s="47">
         <v>44707</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I31" s="47">
         <v>44707</v>
@@ -15041,28 +15317,28 @@
     </row>
     <row r="32" spans="1:317" customFormat="1" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E32" s="47">
         <v>44707</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I32" s="47">
         <v>44707</v>
@@ -15070,28 +15346,28 @@
     </row>
     <row r="33" spans="1:9" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E33" s="47">
         <v>44707</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="G33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I33" s="47">
         <v>44707</v>
@@ -15100,28 +15376,28 @@
     <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:9" customFormat="1" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E35" s="47">
         <v>44707</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="G35" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I35" s="47">
         <v>44707</v>
@@ -15129,28 +15405,28 @@
     </row>
     <row r="36" spans="1:9" customFormat="1" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E36" s="47">
         <v>44707</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="G36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G36" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I36" s="47">
         <v>44707</v>
@@ -15159,28 +15435,28 @@
     <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:9" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E38" s="47">
         <v>44707</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="G38" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G38" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I38" s="47">
         <v>44707</v>
@@ -15188,28 +15464,28 @@
     </row>
     <row r="39" spans="1:9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E39" s="47">
         <v>44707</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="G39" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G39" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I39" s="47">
         <v>44707</v>
@@ -15217,28 +15493,28 @@
     </row>
     <row r="40" spans="1:9" customFormat="1" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E40" s="47">
         <v>44707</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="G40" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G40" s="60" t="s">
         <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I40" s="47">
         <v>44707</v>
@@ -15247,86 +15523,86 @@
     <row r="41" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="23" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="24" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="13" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="11" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="12" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="7" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="8" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"Need Approval"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
